--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C72A0-8B96-6E40-BD55-93FFA04EEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A16DED-D9C2-C745-B3E7-49E4632FF3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8762,8 +8762,8 @@
   </sheetPr>
   <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8775,7 +8775,9 @@
     <col min="7" max="7" width="4.5" style="107" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="8.5" style="106" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="10.33203125" style="106" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="35" width="2.6640625" style="106" customWidth="1"/>
+    <col min="10" max="27" width="2.6640625" style="106" customWidth="1"/>
+    <col min="28" max="28" width="2.5" style="106" customWidth="1"/>
+    <col min="29" max="35" width="2.6640625" style="106" customWidth="1"/>
     <col min="36" max="230" width="9.33203125" style="23" customWidth="1"/>
     <col min="231" max="231" width="4" style="23" bestFit="1" customWidth="1"/>
     <col min="232" max="232" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
@@ -10736,10 +10738,12 @@
       <c r="E29" s="59">
         <v>16</v>
       </c>
-      <c r="F29" s="59"/>
+      <c r="F29" s="59">
+        <v>16</v>
+      </c>
       <c r="G29" s="47">
         <f t="shared" ref="G29:G36" si="3">F29-E29</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="H29" s="76" t="s">
         <v>112</v>
@@ -10764,8 +10768,8 @@
       <c r="X29" s="62"/>
       <c r="Y29" s="75"/>
       <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
       <c r="AC29" s="62"/>
       <c r="AD29" s="62"/>
       <c r="AE29" s="62"/>
@@ -11759,11 +11763,11 @@
       </c>
       <c r="F50" s="105">
         <f>SUM(F5:F48)</f>
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G50" s="105">
         <f>ABS(SUM(G5:G48))</f>
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="15" x14ac:dyDescent="0.2">

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A16DED-D9C2-C745-B3E7-49E4632FF3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFAB41D-E3E1-124C-BC76-75B696859449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8762,8 +8762,8 @@
   </sheetPr>
   <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -10768,7 +10768,7 @@
       <c r="X29" s="62"/>
       <c r="Y29" s="75"/>
       <c r="Z29" s="62"/>
-      <c r="AA29" s="177"/>
+      <c r="AA29" s="62"/>
       <c r="AB29" s="177"/>
       <c r="AC29" s="62"/>
       <c r="AD29" s="62"/>

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFAB41D-E3E1-124C-BC76-75B696859449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91DADC5-AAA8-C145-A5AE-F63A9C0529FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="301">
   <si>
     <t>Kosten</t>
   </si>
@@ -891,9 +891,6 @@
     <t>Entwicklung von der Kalender Synchronisation</t>
   </si>
   <si>
-    <t>Erfassung von Ressourcen</t>
-  </si>
-  <si>
     <t>Erfassen von Aufgaben</t>
   </si>
   <si>
@@ -903,21 +900,12 @@
     <t>User Verwaltung</t>
   </si>
   <si>
-    <t>Projekttypen</t>
-  </si>
-  <si>
     <t>Realisierung Abgeschlossen</t>
   </si>
   <si>
     <t>Release im Appstore</t>
   </si>
   <si>
-    <t>Release im Android Store</t>
-  </si>
-  <si>
-    <t>Testfälle mit meiner Band</t>
-  </si>
-  <si>
     <t>Drucken der Arbeit</t>
   </si>
   <si>
@@ -970,6 +958,12 @@
   </si>
   <si>
     <t>Testdruchführung</t>
+  </si>
+  <si>
+    <t>Erfassen von Projekten</t>
+  </si>
+  <si>
+    <t>Chat</t>
   </si>
 </sst>
 </file>
@@ -2826,6 +2820,18 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2925,18 +2931,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4022,11 +4016,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="148"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4148,11 +4142,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="146" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="148"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4931,81 +4925,81 @@
       </c>
     </row>
     <row r="2" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
       <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="172" t="s">
         <v>256</v>
       </c>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="170"/>
-      <c r="AK2" s="170"/>
-      <c r="AL2" s="170"/>
-      <c r="AM2" s="170"/>
-      <c r="AN2" s="170"/>
-      <c r="AO2" s="170"/>
-      <c r="AP2" s="170"/>
-      <c r="AQ2" s="170"/>
-      <c r="AR2" s="170"/>
-      <c r="AS2" s="170"/>
-      <c r="AT2" s="170"/>
-      <c r="AU2" s="170"/>
-      <c r="AV2" s="170"/>
-      <c r="AW2" s="170"/>
-      <c r="AX2" s="170"/>
-      <c r="AY2" s="170"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="170"/>
-      <c r="BB2" s="170"/>
-      <c r="BC2" s="170"/>
-      <c r="BD2" s="170"/>
-      <c r="BE2" s="170"/>
-      <c r="BF2" s="170"/>
-      <c r="BG2" s="170"/>
-      <c r="BH2" s="170"/>
-      <c r="BI2" s="171"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="173"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="174"/>
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="174"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="174"/>
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="174"/>
+      <c r="AX2" s="174"/>
+      <c r="AY2" s="174"/>
+      <c r="AZ2" s="174"/>
+      <c r="BA2" s="174"/>
+      <c r="BB2" s="174"/>
+      <c r="BC2" s="174"/>
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="174"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="174"/>
+      <c r="BH2" s="174"/>
+      <c r="BI2" s="175"/>
     </row>
     <row r="3" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
@@ -5017,86 +5011,86 @@
       <c r="G3" s="27"/>
       <c r="H3" s="26"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="172" t="s">
+      <c r="J3" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="175" t="s">
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="172" t="s">
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="175" t="s">
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="175" t="s">
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="175" t="s">
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="175" t="s">
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
+      <c r="AJ3" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="173"/>
-      <c r="AL3" s="173"/>
-      <c r="AM3" s="174"/>
-      <c r="AN3" s="175" t="s">
+      <c r="AK3" s="177"/>
+      <c r="AL3" s="177"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="173"/>
-      <c r="AP3" s="173"/>
-      <c r="AQ3" s="174"/>
-      <c r="AR3" s="175" t="s">
+      <c r="AO3" s="177"/>
+      <c r="AP3" s="177"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="AS3" s="173"/>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173"/>
-      <c r="AV3" s="174"/>
-      <c r="AW3" s="175" t="s">
+      <c r="AS3" s="177"/>
+      <c r="AT3" s="177"/>
+      <c r="AU3" s="177"/>
+      <c r="AV3" s="178"/>
+      <c r="AW3" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="AX3" s="173"/>
-      <c r="AY3" s="173"/>
-      <c r="AZ3" s="174"/>
-      <c r="BA3" s="175" t="s">
+      <c r="AX3" s="177"/>
+      <c r="AY3" s="177"/>
+      <c r="AZ3" s="178"/>
+      <c r="BA3" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="BB3" s="173"/>
-      <c r="BC3" s="173"/>
-      <c r="BD3" s="174"/>
-      <c r="BE3" s="175" t="s">
+      <c r="BB3" s="177"/>
+      <c r="BC3" s="177"/>
+      <c r="BD3" s="178"/>
+      <c r="BE3" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="BF3" s="173"/>
-      <c r="BG3" s="173"/>
-      <c r="BH3" s="173"/>
-      <c r="BI3" s="176"/>
+      <c r="BF3" s="177"/>
+      <c r="BG3" s="177"/>
+      <c r="BH3" s="177"/>
+      <c r="BI3" s="180"/>
     </row>
     <row r="4" spans="1:61" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="167"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="29" t="s">
         <v>40</v>
       </c>
@@ -5272,10 +5266,10 @@
       </c>
     </row>
     <row r="5" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="154"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -6204,10 +6198,10 @@
       <c r="BI18" s="72"/>
     </row>
     <row r="19" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="154"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -6734,10 +6728,10 @@
       <c r="BI26" s="72"/>
     </row>
     <row r="27" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="154"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37"/>
@@ -7532,10 +7526,10 @@
       <c r="BI38" s="89"/>
     </row>
     <row r="39" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="153" t="s">
+      <c r="A39" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="154"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="37"/>
@@ -7928,10 +7922,10 @@
       <c r="BI44" s="72"/>
     </row>
     <row r="45" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="154"/>
+      <c r="B45" s="158"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
@@ -8257,10 +8251,10 @@
       <c r="BI49" s="53"/>
     </row>
     <row r="50" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="153" t="s">
+      <c r="A50" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="154"/>
+      <c r="B50" s="158"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="37"/>
@@ -8601,28 +8595,28 @@
       </c>
     </row>
     <row r="57" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160"/>
     </row>
     <row r="58" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
         <v>181</v>
       </c>
       <c r="B58" s="108"/>
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="158"/>
-      <c r="E58" s="159" t="s">
+      <c r="D58" s="162"/>
+      <c r="E58" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="F58" s="160"/>
+      <c r="F58" s="164"/>
       <c r="G58" s="106"/>
       <c r="H58" s="107"/>
       <c r="BJ58" s="106"/>
@@ -8632,14 +8626,14 @@
         <v>184</v>
       </c>
       <c r="B59" s="109"/>
-      <c r="C59" s="145" t="s">
+      <c r="C59" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="146"/>
-      <c r="E59" s="161" t="s">
+      <c r="D59" s="150"/>
+      <c r="E59" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="162"/>
+      <c r="F59" s="166"/>
       <c r="G59" s="106"/>
       <c r="H59" s="107"/>
       <c r="BJ59" s="106"/>
@@ -8649,14 +8643,14 @@
         <v>186</v>
       </c>
       <c r="B60" s="110"/>
-      <c r="C60" s="145" t="s">
+      <c r="C60" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="146"/>
-      <c r="E60" s="147" t="s">
+      <c r="D60" s="150"/>
+      <c r="E60" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="148"/>
+      <c r="F60" s="152"/>
       <c r="G60" s="106"/>
       <c r="H60" s="107"/>
       <c r="BJ60" s="106"/>
@@ -8666,14 +8660,14 @@
         <v>188</v>
       </c>
       <c r="B61" s="110"/>
-      <c r="C61" s="145" t="s">
+      <c r="C61" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="146"/>
-      <c r="E61" s="147" t="s">
+      <c r="D61" s="150"/>
+      <c r="E61" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="148"/>
+      <c r="F61" s="152"/>
       <c r="G61" s="106"/>
       <c r="H61" s="107"/>
       <c r="BJ61" s="106"/>
@@ -8683,14 +8677,14 @@
         <v>190</v>
       </c>
       <c r="B62" s="110"/>
-      <c r="C62" s="145" t="s">
+      <c r="C62" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="146"/>
-      <c r="E62" s="147" t="s">
+      <c r="D62" s="150"/>
+      <c r="E62" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="148"/>
+      <c r="F62" s="152"/>
       <c r="G62" s="106"/>
       <c r="H62" s="107"/>
       <c r="BJ62" s="106"/>
@@ -8700,14 +8694,14 @@
         <v>192</v>
       </c>
       <c r="B63" s="111"/>
-      <c r="C63" s="149" t="s">
+      <c r="C63" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="151" t="s">
+      <c r="D63" s="154"/>
+      <c r="E63" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="152"/>
+      <c r="F63" s="156"/>
       <c r="G63" s="106"/>
       <c r="H63" s="107"/>
       <c r="BJ63" s="106"/>
@@ -8760,10 +8754,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -9287,59 +9281,59 @@
   <sheetData>
     <row r="1" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="136" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
       <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="173"/>
     </row>
     <row r="3" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
@@ -9351,48 +9345,48 @@
       <c r="G3" s="27"/>
       <c r="H3" s="26"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="172" t="s">
+      <c r="J3" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="175" t="s">
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="172" t="s">
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="175" t="s">
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="175" t="s">
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="175" t="s">
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="174"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="163"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="167"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="29" t="s">
         <v>40</v>
       </c>
@@ -9490,10 +9484,10 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="154"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -9533,7 +9527,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C6" s="46">
         <v>45658</v>
@@ -9589,7 +9583,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C7" s="46">
         <v>45658</v>
@@ -9645,7 +9639,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C8" s="46">
         <v>45658</v>
@@ -9847,7 +9841,7 @@
       <c r="Q11" s="56"/>
       <c r="R11" s="62"/>
       <c r="S11" s="62"/>
-      <c r="T11" s="178"/>
+      <c r="T11" s="143"/>
       <c r="U11" s="62"/>
       <c r="V11" s="62"/>
       <c r="W11" s="62"/>
@@ -9903,7 +9897,7 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="75"/>
       <c r="S12" s="62"/>
-      <c r="T12" s="178"/>
+      <c r="T12" s="143"/>
       <c r="U12" s="62"/>
       <c r="V12" s="137"/>
       <c r="W12" s="137"/>
@@ -9959,7 +9953,7 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="75"/>
       <c r="S13" s="62"/>
-      <c r="T13" s="178"/>
+      <c r="T13" s="143"/>
       <c r="U13" s="62"/>
       <c r="V13" s="137"/>
       <c r="W13" s="137"/>
@@ -10016,7 +10010,7 @@
       <c r="R14" s="62"/>
       <c r="S14" s="75"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="178"/>
+      <c r="U14" s="143"/>
       <c r="V14" s="137"/>
       <c r="W14" s="137"/>
       <c r="X14" s="137"/>
@@ -10072,7 +10066,7 @@
       <c r="R15" s="62"/>
       <c r="S15" s="62"/>
       <c r="T15" s="75"/>
-      <c r="U15" s="178"/>
+      <c r="U15" s="143"/>
       <c r="V15" s="137"/>
       <c r="W15" s="137"/>
       <c r="X15" s="137"/>
@@ -10129,7 +10123,7 @@
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
       <c r="U16" s="77"/>
-      <c r="V16" s="178"/>
+      <c r="V16" s="143"/>
       <c r="W16" s="138"/>
       <c r="X16" s="138"/>
       <c r="Y16" s="138"/>
@@ -10182,10 +10176,10 @@
       <c r="AI17" s="71"/>
     </row>
     <row r="18" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="154"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="37"/>
@@ -10243,7 +10237,7 @@
         <f t="shared" ref="G19:G26" si="2">F19-E19</f>
         <v>8</v>
       </c>
-      <c r="H19" s="180" t="s">
+      <c r="H19" s="145" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="50" t="s">
@@ -10262,8 +10256,8 @@
       <c r="T19" s="52"/>
       <c r="U19" s="52"/>
       <c r="V19" s="75"/>
-      <c r="W19" s="177"/>
-      <c r="X19" s="177"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="142"/>
       <c r="Y19" s="52"/>
       <c r="Z19" s="52"/>
       <c r="AA19" s="52"/>
@@ -10335,7 +10329,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>274</v>
@@ -10400,12 +10394,14 @@
       <c r="E22" s="59">
         <v>8</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="F22" s="59">
+        <v>8</v>
+      </c>
       <c r="G22" s="47">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="H22" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="145" t="s">
         <v>99</v>
       </c>
       <c r="I22" s="50" t="s">
@@ -10426,7 +10422,7 @@
       <c r="V22" s="62"/>
       <c r="W22" s="62"/>
       <c r="X22" s="75"/>
-      <c r="Y22" s="177"/>
+      <c r="Y22" s="142"/>
       <c r="Z22" s="62"/>
       <c r="AA22" s="62"/>
       <c r="AB22" s="62"/>
@@ -10454,12 +10450,14 @@
       <c r="E23" s="59">
         <v>24</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="59">
+        <v>24</v>
+      </c>
       <c r="G23" s="59">
         <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-      <c r="H23" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="145" t="s">
         <v>99</v>
       </c>
       <c r="I23" s="50" t="s">
@@ -10480,7 +10478,7 @@
       <c r="V23" s="75"/>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
-      <c r="Y23" s="177"/>
+      <c r="Y23" s="142"/>
       <c r="Z23" s="62"/>
       <c r="AA23" s="62"/>
       <c r="AB23" s="62"/>
@@ -10497,7 +10495,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -10511,11 +10509,11 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H24" s="180" t="s">
+      <c r="H24" s="145" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="50"/>
-      <c r="J24" s="179"/>
+      <c r="J24" s="144"/>
       <c r="K24" s="62"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
@@ -10531,7 +10529,7 @@
       <c r="W24" s="62"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
-      <c r="Z24" s="177"/>
+      <c r="Z24" s="142"/>
       <c r="AA24" s="62"/>
       <c r="AB24" s="62"/>
       <c r="AC24" s="62"/>
@@ -10544,10 +10542,10 @@
     </row>
     <row r="25" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -10561,11 +10559,11 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H25" s="180" t="s">
+      <c r="H25" s="145" t="s">
         <v>99</v>
       </c>
       <c r="I25" s="50"/>
-      <c r="J25" s="179"/>
+      <c r="J25" s="144"/>
       <c r="K25" s="62"/>
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
@@ -10582,7 +10580,7 @@
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
-      <c r="AA25" s="177"/>
+      <c r="AA25" s="142"/>
       <c r="AB25" s="62"/>
       <c r="AC25" s="62"/>
       <c r="AD25" s="62"/>
@@ -10594,7 +10592,7 @@
     </row>
     <row r="26" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="74" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>273</v>
@@ -10684,10 +10682,10 @@
       <c r="AI27" s="71"/>
     </row>
     <row r="28" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="154"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="37"/>
@@ -10730,10 +10728,10 @@
         <v>275</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E29" s="59">
         <v>16</v>
@@ -10742,7 +10740,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="47">
-        <f t="shared" ref="G29:G36" si="3">F29-E29</f>
+        <f t="shared" ref="G29:G34" si="3">F29-E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="76" t="s">
@@ -10769,7 +10767,7 @@
       <c r="Y29" s="75"/>
       <c r="Z29" s="62"/>
       <c r="AA29" s="62"/>
-      <c r="AB29" s="177"/>
+      <c r="AB29" s="142"/>
       <c r="AC29" s="62"/>
       <c r="AD29" s="62"/>
       <c r="AE29" s="62"/>
@@ -10783,21 +10781,23 @@
         <v>141</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E30" s="59">
         <v>16</v>
       </c>
-      <c r="F30" s="59"/>
+      <c r="F30" s="59">
+        <v>16</v>
+      </c>
       <c r="G30" s="47">
         <f t="shared" si="3"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="H30" s="76" t="s">
         <v>112</v>
@@ -10823,7 +10823,7 @@
       <c r="Y30" s="52"/>
       <c r="Z30" s="75"/>
       <c r="AA30" s="62"/>
-      <c r="AB30" s="52"/>
+      <c r="AB30" s="142"/>
       <c r="AC30" s="62"/>
       <c r="AD30" s="62"/>
       <c r="AE30" s="52"/>
@@ -10837,21 +10837,23 @@
         <v>142</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E31" s="59">
         <v>16</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="59">
+        <v>16</v>
+      </c>
       <c r="G31" s="47">
         <f t="shared" si="3"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="H31" s="76" t="s">
         <v>112</v>
@@ -10878,8 +10880,8 @@
       <c r="Z31" s="62"/>
       <c r="AA31" s="75"/>
       <c r="AB31" s="52"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
+      <c r="AC31" s="142"/>
+      <c r="AD31" s="52"/>
       <c r="AE31" s="52"/>
       <c r="AF31" s="52"/>
       <c r="AG31" s="52"/>
@@ -10888,24 +10890,26 @@
     </row>
     <row r="32" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E32" s="59">
         <v>8</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="59">
+        <v>16</v>
+      </c>
       <c r="G32" s="47">
         <f t="shared" si="3"/>
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="H32" s="76" t="s">
         <v>112</v>
@@ -10930,10 +10934,10 @@
       <c r="X32" s="62"/>
       <c r="Y32" s="52"/>
       <c r="Z32" s="62"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="52"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="75"/>
       <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
+      <c r="AD32" s="142"/>
       <c r="AE32" s="52"/>
       <c r="AF32" s="52"/>
       <c r="AG32" s="52"/>
@@ -10942,52 +10946,54 @@
     </row>
     <row r="33" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>279</v>
+        <v>148</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>278</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E33" s="59">
         <v>8</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="47">
+        <v>16</v>
+      </c>
       <c r="G33" s="47">
         <f t="shared" si="3"/>
-        <v>-8</v>
-      </c>
-      <c r="H33" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="49" t="s">
         <v>112</v>
       </c>
       <c r="I33" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
       <c r="U33" s="62"/>
       <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
       <c r="Y33" s="52"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
       <c r="AB33" s="75"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="142"/>
       <c r="AE33" s="52"/>
       <c r="AF33" s="52"/>
       <c r="AG33" s="52"/>
@@ -10996,26 +11002,26 @@
     </row>
     <row r="34" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="74" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="59">
-        <v>8</v>
+        <v>289</v>
+      </c>
+      <c r="E34" s="47">
+        <v>0</v>
       </c>
       <c r="F34" s="47"/>
       <c r="G34" s="47">
-        <f>F34-E35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="76" t="s">
         <v>112</v>
       </c>
       <c r="I34" s="50" t="s">
@@ -11034,223 +11040,238 @@
       <c r="T34" s="52"/>
       <c r="U34" s="62"/>
       <c r="V34" s="62"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
       <c r="Y34" s="52"/>
       <c r="Z34" s="52"/>
       <c r="AA34" s="52"/>
-      <c r="AB34" s="75"/>
+      <c r="AB34" s="77"/>
       <c r="AC34" s="52"/>
       <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
+      <c r="AE34" s="142"/>
       <c r="AF34" s="52"/>
       <c r="AG34" s="52"/>
       <c r="AH34" s="52"/>
       <c r="AI34" s="52"/>
     </row>
-    <row r="35" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="47">
+    <row r="35" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="88"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="88"/>
+      <c r="AD35" s="88"/>
+      <c r="AE35" s="88"/>
+      <c r="AF35" s="88"/>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="88"/>
+      <c r="AI35" s="88"/>
+    </row>
+    <row r="36" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="158"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="140"/>
+      <c r="AD36" s="140"/>
+      <c r="AE36" s="140"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+    </row>
+    <row r="37" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="47">
+        <v>8</v>
+      </c>
+      <c r="F37" s="47">
         <v>0</v>
       </c>
-      <c r="F35" s="47">
+      <c r="G37" s="47">
+        <f>F37-E37</f>
+        <v>-8</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" s="55"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="142"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+    </row>
+    <row r="38" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="59">
         <v>8</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="177"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-    </row>
-    <row r="36" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="47">
+      <c r="F38" s="59">
+        <v>8</v>
+      </c>
+      <c r="G38" s="47">
+        <f t="shared" ref="G38" si="4">F38-E38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="76" t="s">
+      <c r="H38" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="I38" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="J36" s="55"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="77"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-    </row>
-    <row r="37" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="88"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="88"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="88"/>
-      <c r="AF37" s="88"/>
-      <c r="AG37" s="88"/>
-      <c r="AH37" s="88"/>
-      <c r="AI37" s="88"/>
-    </row>
-    <row r="38" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="154"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="140"/>
-      <c r="AD38" s="140"/>
-      <c r="AE38" s="140"/>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="41"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="62"/>
+      <c r="AE38" s="142"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
     </row>
     <row r="39" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E39" s="47">
         <v>8</v>
       </c>
-      <c r="F39" s="47"/>
+      <c r="F39" s="47">
+        <v>8</v>
+      </c>
       <c r="G39" s="47">
         <f>F39-E39</f>
-        <v>-8</v>
-      </c>
-      <c r="H39" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="47" t="s">
         <v>112</v>
       </c>
       <c r="I39" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="J39" s="55"/>
+      <c r="J39" s="81"/>
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
       <c r="M39" s="52"/>
@@ -11270,271 +11291,273 @@
       <c r="AA39" s="52"/>
       <c r="AB39" s="52"/>
       <c r="AC39" s="75"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75"/>
       <c r="AF39" s="52"/>
       <c r="AG39" s="52"/>
       <c r="AH39" s="52"/>
       <c r="AI39" s="52"/>
     </row>
     <row r="40" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>283</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="E40" s="59">
+        <v>291</v>
+      </c>
+      <c r="E40" s="47">
         <v>8</v>
       </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59">
+      <c r="F40" s="47">
+        <v>0</v>
+      </c>
+      <c r="G40" s="47">
         <f>F40-E40</f>
         <v>-8</v>
       </c>
-      <c r="H40" s="76" t="s">
+      <c r="H40" s="47" t="s">
         <v>112</v>
       </c>
       <c r="I40" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-    </row>
-    <row r="41" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="E41" s="47">
+      <c r="J40" s="81"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="77"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+    </row>
+    <row r="41" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="71"/>
+      <c r="AG41" s="71"/>
+      <c r="AH41" s="71"/>
+      <c r="AI41" s="71"/>
+    </row>
+    <row r="42" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="158"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+    </row>
+    <row r="43" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="46">
+        <v>40466</v>
+      </c>
+      <c r="E43" s="47">
         <v>8</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47">
-        <f>F41-E41</f>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47">
+        <f>F43-E43</f>
         <v>-8</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H43" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I43" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="J41" s="81"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="75"/>
-      <c r="AD41" s="75"/>
-      <c r="AE41" s="75"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="52"/>
-      <c r="AI41" s="52"/>
-    </row>
-    <row r="42" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="47">
+      <c r="J43" s="55"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="91"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+    </row>
+    <row r="44" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="46">
+        <v>40466</v>
+      </c>
+      <c r="E44" s="47">
         <v>8</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47">
-        <f>F42-E42</f>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47">
+        <f>F44-E44</f>
         <v>-8</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H44" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="50" t="s">
+      <c r="I44" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="J42" s="81"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="77"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="52"/>
-      <c r="AI42" s="52"/>
-    </row>
-    <row r="43" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="71"/>
-    </row>
-    <row r="44" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="153" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="41"/>
-      <c r="AC44" s="41"/>
-      <c r="AD44" s="41"/>
-      <c r="AE44" s="41"/>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="41"/>
-      <c r="AH44" s="41"/>
-      <c r="AI44" s="41"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
     </row>
     <row r="45" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D45" s="46">
-        <v>40466</v>
+        <v>40471</v>
       </c>
       <c r="E45" s="47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="47">
         <f>F45-E45</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="H45" s="49" t="s">
         <v>112</v>
@@ -11554,48 +11577,31 @@
       <c r="S45" s="52"/>
       <c r="T45" s="52"/>
       <c r="U45" s="52"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="91"/>
-      <c r="Z45" s="91"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
       <c r="AA45" s="52"/>
       <c r="AB45" s="52"/>
       <c r="AC45" s="52"/>
       <c r="AD45" s="52"/>
       <c r="AE45" s="52"/>
-      <c r="AF45" s="75"/>
+      <c r="AF45" s="77"/>
       <c r="AG45" s="52"/>
       <c r="AH45" s="52"/>
       <c r="AI45" s="52"/>
     </row>
-    <row r="46" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="D46" s="46">
-        <v>40466</v>
-      </c>
-      <c r="E46" s="47">
-        <v>8</v>
-      </c>
+    <row r="46" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="47"/>
-      <c r="G46" s="47">
-        <f>F46-E46</f>
-        <v>-8</v>
-      </c>
-      <c r="H46" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="50" t="s">
-        <v>267</v>
-      </c>
+      <c r="G46" s="47"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="50"/>
       <c r="J46" s="55"/>
       <c r="K46" s="52"/>
       <c r="L46" s="52"/>
@@ -11618,201 +11624,110 @@
       <c r="AC46" s="52"/>
       <c r="AD46" s="52"/>
       <c r="AE46" s="52"/>
-      <c r="AF46" s="75"/>
+      <c r="AF46" s="52"/>
       <c r="AG46" s="52"/>
       <c r="AH46" s="52"/>
       <c r="AI46" s="52"/>
     </row>
-    <row r="47" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="D47" s="46">
-        <v>40471</v>
-      </c>
-      <c r="E47" s="47">
-        <v>4</v>
-      </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47">
-        <f>F47-E47</f>
-        <v>-4</v>
-      </c>
-      <c r="H47" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I47" s="50" t="s">
+    <row r="47" spans="1:35" s="43" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="101"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
+      <c r="V47" s="103"/>
+      <c r="W47" s="103"/>
+      <c r="X47" s="103"/>
+      <c r="Y47" s="103"/>
+      <c r="Z47" s="103"/>
+      <c r="AA47" s="103"/>
+      <c r="AB47" s="103"/>
+      <c r="AC47" s="103"/>
+      <c r="AD47" s="103"/>
+      <c r="AE47" s="103"/>
+      <c r="AF47" s="103"/>
+      <c r="AG47" s="103"/>
+      <c r="AH47" s="103"/>
+      <c r="AI47" s="103"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B48" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="105">
+        <f>SUM(E5:E46)</f>
+        <v>246</v>
+      </c>
+      <c r="F48" s="105">
+        <f>SUM(F5:F46)</f>
+        <v>234</v>
+      </c>
+      <c r="G48" s="105">
+        <f>ABS(SUM(G5:G46))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+    </row>
+    <row r="51" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="108"/>
+      <c r="C51" s="161" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="162"/>
+      <c r="E51" s="163" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="164"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="107"/>
+      <c r="AJ51" s="106"/>
+    </row>
+    <row r="52" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="109"/>
+      <c r="C52" s="149" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="150"/>
+      <c r="E52" s="165" t="s">
         <v>267</v>
       </c>
-      <c r="J47" s="55"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="77"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52"/>
-      <c r="AI47" s="52"/>
-    </row>
-    <row r="48" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="52"/>
-    </row>
-    <row r="49" spans="1:36" s="43" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="101"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="103"/>
-      <c r="R49" s="103"/>
-      <c r="S49" s="103"/>
-      <c r="T49" s="103"/>
-      <c r="U49" s="103"/>
-      <c r="V49" s="103"/>
-      <c r="W49" s="103"/>
-      <c r="X49" s="103"/>
-      <c r="Y49" s="103"/>
-      <c r="Z49" s="103"/>
-      <c r="AA49" s="103"/>
-      <c r="AB49" s="103"/>
-      <c r="AC49" s="103"/>
-      <c r="AD49" s="103"/>
-      <c r="AE49" s="103"/>
-      <c r="AF49" s="103"/>
-      <c r="AG49" s="103"/>
-      <c r="AH49" s="103"/>
-      <c r="AI49" s="103"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B50" s="104" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="105">
-        <f>SUM(E5:E48)</f>
-        <v>254</v>
-      </c>
-      <c r="F50" s="105">
-        <f>SUM(F5:F48)</f>
-        <v>130</v>
-      </c>
-      <c r="G50" s="105">
-        <f>ABS(SUM(G5:G48))</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="155" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="156"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-    </row>
-    <row r="53" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="B53" s="108"/>
-      <c r="C53" s="157" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159" t="s">
-        <v>183</v>
-      </c>
-      <c r="F53" s="160"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="107"/>
-      <c r="AJ53" s="106"/>
-    </row>
-    <row r="54" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="109" t="s">
-        <v>270</v>
-      </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="145" t="s">
-        <v>271</v>
-      </c>
-      <c r="D54" s="146"/>
-      <c r="E54" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" s="162"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="107"/>
-      <c r="AJ54" s="106"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="107"/>
+      <c r="AJ52" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -11826,16 +11741,16 @@
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91DADC5-AAA8-C145-A5AE-F63A9C0529FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9A598-3C7F-254C-AF4E-62983FCE1FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,8 @@
     <sheet name="PERT" sheetId="10" r:id="rId6"/>
     <sheet name="GANTT Leer" sheetId="11" r:id="rId7"/>
     <sheet name="GANTT" sheetId="3" r:id="rId8"/>
-    <sheet name="Organigram" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="Organigram" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="299">
   <si>
     <t>Kosten</t>
   </si>
@@ -840,9 +841,6 @@
     <t>UX / Mockup</t>
   </si>
   <si>
-    <t>14.02.2025</t>
-  </si>
-  <si>
     <t>Projektziele Definieren</t>
   </si>
   <si>
@@ -858,12 +856,6 @@
     <t>Zwischen Meeting</t>
   </si>
   <si>
-    <t>15.02.2025</t>
-  </si>
-  <si>
-    <t>28.03.2025</t>
-  </si>
-  <si>
     <t>TAK</t>
   </si>
   <si>
@@ -879,15 +871,9 @@
     <t>Alles</t>
   </si>
   <si>
-    <t>Dokumentation</t>
-  </si>
-  <si>
     <t>Konzept Abgeschlossen</t>
   </si>
   <si>
-    <t>01.04.2025</t>
-  </si>
-  <si>
     <t>Entwicklung von der Kalender Synchronisation</t>
   </si>
   <si>
@@ -927,18 +913,6 @@
     <t>Marketing Video Aufgenommen und Geschnitten</t>
   </si>
   <si>
-    <t>21.04.2025</t>
-  </si>
-  <si>
-    <t>18.05.2025</t>
-  </si>
-  <si>
-    <t>19.05.2025</t>
-  </si>
-  <si>
-    <t>08.06.2025</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -964,13 +938,37 @@
   </si>
   <si>
     <t>Chat</t>
+  </si>
+  <si>
+    <t>Kick off Vorbereiten</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Projektinitalierungsauftrag</t>
+  </si>
+  <si>
+    <t>Projektplan</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>Backend Endpoints bereitstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,8 +1121,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val=".AppleSystemUIFont"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1197,6 +1200,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="92">
     <border>
@@ -2411,7 +2420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2832,6 +2841,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3090,7 +3109,7 @@
         <xdr:cNvPr id="2" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3431,19 +3450,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="71.5" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="30" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3457,139 +3476,139 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="14"/>
       <c r="B3" s="7"/>
       <c r="C3" s="113"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="9"/>
       <c r="C4" s="114"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="9"/>
       <c r="C5" s="114"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="9"/>
       <c r="C6" s="114"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="19.5" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="9"/>
       <c r="C7" s="114"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="19.5" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="9"/>
       <c r="C8" s="114"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="19.5" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="9"/>
       <c r="C9" s="114"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="19.5" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="9"/>
       <c r="C10" s="114"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
       <c r="C11" s="114"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="9"/>
       <c r="C12" s="114"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="9"/>
       <c r="C13" s="114"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
       <c r="C14" s="114"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="19.5" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="114"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="9"/>
       <c r="C16" s="114"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="9"/>
       <c r="C17" s="114"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="9"/>
       <c r="C18" s="114"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="9"/>
       <c r="C19" s="114"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="9"/>
       <c r="C20" s="114"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="114"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="9"/>
       <c r="C22" s="114"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="9"/>
       <c r="C23" s="114"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="115"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -3597,6 +3616,29 @@
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21">
+      <c r="A1" s="125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3611,7 +3653,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
@@ -3619,12 +3661,12 @@
     <col min="5" max="5" width="52.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="30" thickBot="1">
       <c r="B1" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17" thickBot="1">
       <c r="B2" s="18" t="s">
         <v>196</v>
       </c>
@@ -3638,7 +3680,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3655,7 +3697,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3672,7 +3714,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3685,7 +3727,7 @@
       <c r="D5" s="114"/>
       <c r="E5" s="118"/>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3698,7 +3740,7 @@
       <c r="D6" s="114"/>
       <c r="E6" s="118"/>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="19.5" customHeight="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3711,7 +3753,7 @@
       <c r="D7" s="114"/>
       <c r="E7" s="118"/>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3724,7 +3766,7 @@
       <c r="D8" s="114"/>
       <c r="E8" s="118"/>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3741,7 +3783,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="32.25" customHeight="1">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3758,7 +3800,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3775,7 +3817,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3788,7 +3830,7 @@
       <c r="D12" s="114"/>
       <c r="E12" s="118"/>
     </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="19.5" customHeight="1">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3805,7 +3847,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="19.5" customHeight="1">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3818,7 +3860,7 @@
       <c r="D14" s="114"/>
       <c r="E14" s="118"/>
     </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="19.5" customHeight="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3835,7 +3877,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3848,7 +3890,7 @@
       <c r="D16" s="114"/>
       <c r="E16" s="118"/>
     </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3861,7 +3903,7 @@
       <c r="D17" s="114"/>
       <c r="E17" s="118"/>
     </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3874,7 +3916,7 @@
       <c r="D18" s="114"/>
       <c r="E18" s="118"/>
     </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3887,7 +3929,7 @@
       <c r="D19" s="114"/>
       <c r="E19" s="118"/>
     </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="19.5" customHeight="1">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3900,7 +3942,7 @@
       <c r="D20" s="114"/>
       <c r="E20" s="118"/>
     </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3917,7 +3959,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="19.5" customHeight="1">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3930,7 +3972,7 @@
       <c r="D22" s="114"/>
       <c r="E22" s="118"/>
     </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3945,7 +3987,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3958,27 +4000,27 @@
       <c r="D24" s="115"/>
       <c r="E24" s="119"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16">
       <c r="B28" s="116" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="16">
       <c r="B29" s="116" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="16">
       <c r="B30" s="116" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16">
       <c r="B31" s="116" t="s">
         <v>205</v>
       </c>
@@ -4003,7 +4045,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -4015,15 +4057,15 @@
     <col min="8" max="8" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:8" ht="47">
+      <c r="A1" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="151"/>
+      <c r="C1" s="152"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1"/>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -4041,69 +4083,69 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A5" s="120"/>
       <c r="C5" s="120"/>
       <c r="E5" s="120"/>
       <c r="G5" s="120"/>
     </row>
-    <row r="6" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="123" customFormat="1" ht="21"/>
+    <row r="7" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A7" s="122"/>
       <c r="C7" s="122"/>
       <c r="E7" s="122"/>
       <c r="G7" s="122"/>
     </row>
-    <row r="8" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="123" customFormat="1" ht="21">
       <c r="A8" s="124"/>
       <c r="C8" s="124"/>
       <c r="E8" s="124"/>
       <c r="G8" s="124"/>
     </row>
-    <row r="9" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A9" s="122"/>
       <c r="C9" s="122"/>
       <c r="E9" s="122"/>
       <c r="G9" s="122"/>
     </row>
-    <row r="10" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="123" customFormat="1" ht="21"/>
+    <row r="11" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A11" s="122"/>
       <c r="C11" s="122"/>
       <c r="E11" s="122"/>
       <c r="G11" s="122"/>
     </row>
-    <row r="12" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="123" customFormat="1" ht="21">
       <c r="A12" s="124"/>
       <c r="C12" s="124"/>
       <c r="E12" s="124"/>
       <c r="G12" s="124"/>
     </row>
-    <row r="13" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A13" s="122"/>
       <c r="C13" s="122"/>
       <c r="E13" s="122"/>
       <c r="G13" s="122"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21">
       <c r="A14" s="124"/>
       <c r="C14" s="124"/>
       <c r="E14" s="124"/>
       <c r="G14" s="124"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="83.25" customHeight="1">
       <c r="A15" s="122"/>
       <c r="C15" s="122"/>
       <c r="E15" s="122"/>
       <c r="G15" s="122"/>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="21">
       <c r="A16" s="124"/>
       <c r="C16" s="124"/>
       <c r="E16" s="124"/>
       <c r="G16" s="124"/>
     </row>
-    <row r="17" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="83.25" customHeight="1">
       <c r="A17" s="122"/>
       <c r="C17" s="122"/>
       <c r="E17" s="122"/>
@@ -4129,7 +4171,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -4141,15 +4183,15 @@
     <col min="8" max="8" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:8" ht="47">
+      <c r="A1" s="150" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="148"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="151"/>
+      <c r="C1" s="152"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1"/>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -4167,7 +4209,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A5" s="120" t="s">
         <v>194</v>
       </c>
@@ -4181,8 +4223,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="123" customFormat="1" ht="21"/>
+    <row r="7" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A7" s="122" t="s">
         <v>195</v>
       </c>
@@ -4196,13 +4238,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="123" customFormat="1" ht="21">
       <c r="A8" s="124"/>
       <c r="C8" s="124"/>
       <c r="E8" s="124"/>
       <c r="G8" s="124"/>
     </row>
-    <row r="9" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A9" s="122" t="s">
         <v>225</v>
       </c>
@@ -4216,12 +4258,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="123" customFormat="1" ht="21">
       <c r="C10" s="124"/>
       <c r="E10" s="124"/>
       <c r="G10" s="124"/>
     </row>
-    <row r="11" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A11" s="122" t="s">
         <v>226</v>
       </c>
@@ -4235,12 +4277,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="123" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="123" customFormat="1" ht="21">
       <c r="A12" s="124"/>
       <c r="C12" s="124"/>
       <c r="E12" s="124"/>
     </row>
-    <row r="13" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="121" customFormat="1" ht="83.25" customHeight="1">
       <c r="A13" s="122" t="s">
         <v>227</v>
       </c>
@@ -4254,13 +4296,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21">
       <c r="A14" s="124"/>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="83.25" customHeight="1">
       <c r="A15" s="122" t="s">
         <v>228</v>
       </c>
@@ -4268,10 +4310,10 @@
       <c r="E15" s="112"/>
       <c r="G15" s="112"/>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="21">
       <c r="A16" s="124"/>
     </row>
-    <row r="17" spans="1:1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="83.25" customHeight="1">
       <c r="A17" s="122" t="s">
         <v>229</v>
       </c>
@@ -4296,9 +4338,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="29">
       <c r="A1" s="13" t="s">
         <v>252</v>
       </c>
@@ -4349,9 +4391,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="29">
       <c r="A1" s="13" t="s">
         <v>253</v>
       </c>
@@ -4402,7 +4444,7 @@
       <selection activeCell="J3" sqref="J3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
@@ -4919,89 +4961,89 @@
     <col min="16190" max="16384" width="9.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" ht="24" thickBot="1">
       <c r="A1" s="136" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
+    <row r="2" spans="1:61" ht="18" customHeight="1">
+      <c r="A2" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="170"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="172" t="s">
+      <c r="J2" s="176" t="s">
         <v>256</v>
       </c>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="174"/>
-      <c r="AR2" s="174"/>
-      <c r="AS2" s="174"/>
-      <c r="AT2" s="174"/>
-      <c r="AU2" s="174"/>
-      <c r="AV2" s="174"/>
-      <c r="AW2" s="174"/>
-      <c r="AX2" s="174"/>
-      <c r="AY2" s="174"/>
-      <c r="AZ2" s="174"/>
-      <c r="BA2" s="174"/>
-      <c r="BB2" s="174"/>
-      <c r="BC2" s="174"/>
-      <c r="BD2" s="174"/>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="174"/>
-      <c r="BI2" s="175"/>
-    </row>
-    <row r="3" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="178"/>
+      <c r="AR2" s="178"/>
+      <c r="AS2" s="178"/>
+      <c r="AT2" s="178"/>
+      <c r="AU2" s="178"/>
+      <c r="AV2" s="178"/>
+      <c r="AW2" s="178"/>
+      <c r="AX2" s="178"/>
+      <c r="AY2" s="178"/>
+      <c r="AZ2" s="178"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="178"/>
+      <c r="BH2" s="178"/>
+      <c r="BI2" s="179"/>
+    </row>
+    <row r="3" spans="1:61" ht="18" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -5011,86 +5053,86 @@
       <c r="G3" s="27"/>
       <c r="H3" s="26"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179" t="s">
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="176" t="s">
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="177"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="179" t="s">
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="179" t="s">
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="179" t="s">
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="177"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
-      <c r="AJ3" s="179" t="s">
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="182"/>
+      <c r="AJ3" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="177"/>
-      <c r="AL3" s="177"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="179" t="s">
+      <c r="AK3" s="181"/>
+      <c r="AL3" s="181"/>
+      <c r="AM3" s="182"/>
+      <c r="AN3" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="177"/>
-      <c r="AP3" s="177"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="179" t="s">
+      <c r="AO3" s="181"/>
+      <c r="AP3" s="181"/>
+      <c r="AQ3" s="182"/>
+      <c r="AR3" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="AS3" s="177"/>
-      <c r="AT3" s="177"/>
-      <c r="AU3" s="177"/>
-      <c r="AV3" s="178"/>
-      <c r="AW3" s="179" t="s">
+      <c r="AS3" s="181"/>
+      <c r="AT3" s="181"/>
+      <c r="AU3" s="181"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="AX3" s="177"/>
-      <c r="AY3" s="177"/>
-      <c r="AZ3" s="178"/>
-      <c r="BA3" s="179" t="s">
+      <c r="AX3" s="181"/>
+      <c r="AY3" s="181"/>
+      <c r="AZ3" s="182"/>
+      <c r="BA3" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="BB3" s="177"/>
-      <c r="BC3" s="177"/>
-      <c r="BD3" s="178"/>
-      <c r="BE3" s="179" t="s">
+      <c r="BB3" s="181"/>
+      <c r="BC3" s="181"/>
+      <c r="BD3" s="182"/>
+      <c r="BE3" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="BF3" s="177"/>
-      <c r="BG3" s="177"/>
-      <c r="BH3" s="177"/>
-      <c r="BI3" s="180"/>
-    </row>
-    <row r="4" spans="1:61" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="167"/>
-      <c r="B4" s="168"/>
+      <c r="BF3" s="181"/>
+      <c r="BG3" s="181"/>
+      <c r="BH3" s="181"/>
+      <c r="BI3" s="184"/>
+    </row>
+    <row r="4" spans="1:61" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="29" t="s">
         <v>40</v>
       </c>
@@ -5265,11 +5307,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+    <row r="5" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="158"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -5330,7 +5372,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="42"/>
     </row>
-    <row r="6" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A6" s="44" t="s">
         <v>97</v>
       </c>
@@ -5397,7 +5439,7 @@
       <c r="BH6" s="52"/>
       <c r="BI6" s="53"/>
     </row>
-    <row r="7" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A7" s="44" t="s">
         <v>101</v>
       </c>
@@ -5464,7 +5506,7 @@
       <c r="BH7" s="52"/>
       <c r="BI7" s="53"/>
     </row>
-    <row r="8" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A8" s="44" t="s">
         <v>103</v>
       </c>
@@ -5531,7 +5573,7 @@
       <c r="BH8" s="52"/>
       <c r="BI8" s="53"/>
     </row>
-    <row r="9" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A9" s="44" t="s">
         <v>105</v>
       </c>
@@ -5598,7 +5640,7 @@
       <c r="BH9" s="62"/>
       <c r="BI9" s="63"/>
     </row>
-    <row r="10" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A10" s="44" t="s">
         <v>108</v>
       </c>
@@ -5665,7 +5707,7 @@
       <c r="BH10" s="52"/>
       <c r="BI10" s="53"/>
     </row>
-    <row r="11" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A11" s="44" t="s">
         <v>110</v>
       </c>
@@ -5732,7 +5774,7 @@
       <c r="BH11" s="52"/>
       <c r="BI11" s="53"/>
     </row>
-    <row r="12" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A12" s="74" t="s">
         <v>113</v>
       </c>
@@ -5799,7 +5841,7 @@
       <c r="BH12" s="62"/>
       <c r="BI12" s="63"/>
     </row>
-    <row r="13" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A13" s="44" t="s">
         <v>114</v>
       </c>
@@ -5866,7 +5908,7 @@
       <c r="BH13" s="62"/>
       <c r="BI13" s="63"/>
     </row>
-    <row r="14" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A14" s="74" t="s">
         <v>116</v>
       </c>
@@ -5933,7 +5975,7 @@
       <c r="BH14" s="62"/>
       <c r="BI14" s="63"/>
     </row>
-    <row r="15" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A15" s="44" t="s">
         <v>118</v>
       </c>
@@ -6000,7 +6042,7 @@
       <c r="BH15" s="62"/>
       <c r="BI15" s="63"/>
     </row>
-    <row r="16" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A16" s="74" t="s">
         <v>120</v>
       </c>
@@ -6067,7 +6109,7 @@
       <c r="BH16" s="62"/>
       <c r="BI16" s="63"/>
     </row>
-    <row r="17" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A17" s="44" t="s">
         <v>121</v>
       </c>
@@ -6134,7 +6176,7 @@
       <c r="BH17" s="52"/>
       <c r="BI17" s="53"/>
     </row>
-    <row r="18" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="66"/>
       <c r="B18" s="67"/>
       <c r="C18" s="68"/>
@@ -6197,11 +6239,11 @@
       <c r="BH18" s="71"/>
       <c r="BI18" s="72"/>
     </row>
-    <row r="19" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="157" t="s">
+    <row r="19" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="158"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -6262,7 +6304,7 @@
       <c r="BH19" s="41"/>
       <c r="BI19" s="42"/>
     </row>
-    <row r="20" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A20" s="44" t="s">
         <v>124</v>
       </c>
@@ -6329,7 +6371,7 @@
       <c r="BH20" s="52"/>
       <c r="BI20" s="53"/>
     </row>
-    <row r="21" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A21" s="74" t="s">
         <v>127</v>
       </c>
@@ -6396,7 +6438,7 @@
       <c r="BH21" s="62"/>
       <c r="BI21" s="63"/>
     </row>
-    <row r="22" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A22" s="44" t="s">
         <v>129</v>
       </c>
@@ -6463,7 +6505,7 @@
       <c r="BH22" s="62"/>
       <c r="BI22" s="63"/>
     </row>
-    <row r="23" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A23" s="74" t="s">
         <v>131</v>
       </c>
@@ -6530,7 +6572,7 @@
       <c r="BH23" s="62"/>
       <c r="BI23" s="63"/>
     </row>
-    <row r="24" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A24" s="74" t="s">
         <v>134</v>
       </c>
@@ -6597,7 +6639,7 @@
       <c r="BH24" s="62"/>
       <c r="BI24" s="63"/>
     </row>
-    <row r="25" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A25" s="44" t="s">
         <v>136</v>
       </c>
@@ -6664,7 +6706,7 @@
       <c r="BH25" s="52"/>
       <c r="BI25" s="53"/>
     </row>
-    <row r="26" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="66"/>
       <c r="B26" s="67"/>
       <c r="C26" s="68"/>
@@ -6727,11 +6769,11 @@
       <c r="BH26" s="71"/>
       <c r="BI26" s="72"/>
     </row>
-    <row r="27" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="157" t="s">
+    <row r="27" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="158"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37"/>
@@ -6792,7 +6834,7 @@
       <c r="BH27" s="41"/>
       <c r="BI27" s="42"/>
     </row>
-    <row r="28" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A28" s="74" t="s">
         <v>139</v>
       </c>
@@ -6859,7 +6901,7 @@
       <c r="BH28" s="62"/>
       <c r="BI28" s="63"/>
     </row>
-    <row r="29" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A29" s="74" t="s">
         <v>141</v>
       </c>
@@ -6926,7 +6968,7 @@
       <c r="BH29" s="62"/>
       <c r="BI29" s="63"/>
     </row>
-    <row r="30" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A30" s="74" t="s">
         <v>142</v>
       </c>
@@ -6993,7 +7035,7 @@
       <c r="BH30" s="62"/>
       <c r="BI30" s="63"/>
     </row>
-    <row r="31" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A31" s="74" t="s">
         <v>144</v>
       </c>
@@ -7060,7 +7102,7 @@
       <c r="BH31" s="62"/>
       <c r="BI31" s="63"/>
     </row>
-    <row r="32" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A32" s="74" t="s">
         <v>146</v>
       </c>
@@ -7127,7 +7169,7 @@
       <c r="BH32" s="62"/>
       <c r="BI32" s="63"/>
     </row>
-    <row r="33" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A33" s="74" t="s">
         <v>148</v>
       </c>
@@ -7194,7 +7236,7 @@
       <c r="BH33" s="52"/>
       <c r="BI33" s="53"/>
     </row>
-    <row r="34" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A34" s="74" t="s">
         <v>150</v>
       </c>
@@ -7261,7 +7303,7 @@
       <c r="BH34" s="52"/>
       <c r="BI34" s="53"/>
     </row>
-    <row r="35" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A35" s="74" t="s">
         <v>152</v>
       </c>
@@ -7328,7 +7370,7 @@
       <c r="BH35" s="52"/>
       <c r="BI35" s="53"/>
     </row>
-    <row r="36" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A36" s="74" t="s">
         <v>154</v>
       </c>
@@ -7395,7 +7437,7 @@
       <c r="BH36" s="62"/>
       <c r="BI36" s="63"/>
     </row>
-    <row r="37" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A37" s="44" t="s">
         <v>156</v>
       </c>
@@ -7462,7 +7504,7 @@
       <c r="BH37" s="52"/>
       <c r="BI37" s="53"/>
     </row>
-    <row r="38" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="82"/>
       <c r="B38" s="83"/>
       <c r="C38" s="84"/>
@@ -7525,11 +7567,11 @@
       <c r="BH38" s="88"/>
       <c r="BI38" s="89"/>
     </row>
-    <row r="39" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="157" t="s">
+    <row r="39" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="161" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="158"/>
+      <c r="B39" s="162"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="37"/>
@@ -7590,7 +7632,7 @@
       <c r="BH39" s="41"/>
       <c r="BI39" s="42"/>
     </row>
-    <row r="40" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A40" s="44" t="s">
         <v>159</v>
       </c>
@@ -7657,7 +7699,7 @@
       <c r="BH40" s="52"/>
       <c r="BI40" s="53"/>
     </row>
-    <row r="41" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A41" s="74" t="s">
         <v>161</v>
       </c>
@@ -7724,7 +7766,7 @@
       <c r="BH41" s="62"/>
       <c r="BI41" s="63"/>
     </row>
-    <row r="42" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A42" s="44" t="s">
         <v>163</v>
       </c>
@@ -7791,7 +7833,7 @@
       <c r="BH42" s="52"/>
       <c r="BI42" s="53"/>
     </row>
-    <row r="43" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A43" s="44" t="s">
         <v>165</v>
       </c>
@@ -7858,7 +7900,7 @@
       <c r="BH43" s="52"/>
       <c r="BI43" s="53"/>
     </row>
-    <row r="44" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="66"/>
       <c r="B44" s="67"/>
       <c r="C44" s="68"/>
@@ -7921,11 +7963,11 @@
       <c r="BH44" s="71"/>
       <c r="BI44" s="72"/>
     </row>
-    <row r="45" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="157" t="s">
+    <row r="45" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A45" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="158"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
@@ -7986,7 +8028,7 @@
       <c r="BH45" s="41"/>
       <c r="BI45" s="42"/>
     </row>
-    <row r="46" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A46" s="44" t="s">
         <v>168</v>
       </c>
@@ -8053,7 +8095,7 @@
       <c r="BH46" s="52"/>
       <c r="BI46" s="53"/>
     </row>
-    <row r="47" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A47" s="44" t="s">
         <v>170</v>
       </c>
@@ -8120,7 +8162,7 @@
       <c r="BH47" s="52"/>
       <c r="BI47" s="53"/>
     </row>
-    <row r="48" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A48" s="44" t="s">
         <v>172</v>
       </c>
@@ -8187,7 +8229,7 @@
       <c r="BH48" s="52"/>
       <c r="BI48" s="53"/>
     </row>
-    <row r="49" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="44"/>
       <c r="B49" s="45"/>
       <c r="C49" s="46"/>
@@ -8250,11 +8292,11 @@
       <c r="BH49" s="52"/>
       <c r="BI49" s="53"/>
     </row>
-    <row r="50" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="157" t="s">
+    <row r="50" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A50" s="161" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="158"/>
+      <c r="B50" s="162"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="37"/>
@@ -8315,7 +8357,7 @@
       <c r="BH50" s="41"/>
       <c r="BI50" s="42"/>
     </row>
-    <row r="51" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A51" s="74" t="s">
         <v>175</v>
       </c>
@@ -8382,7 +8424,7 @@
       <c r="BH51" s="62"/>
       <c r="BI51" s="63"/>
     </row>
-    <row r="52" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A52" s="74" t="s">
         <v>177</v>
       </c>
@@ -8449,7 +8491,7 @@
       <c r="BH52" s="62"/>
       <c r="BI52" s="63"/>
     </row>
-    <row r="53" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A53" s="92"/>
       <c r="B53" s="93"/>
       <c r="C53" s="94"/>
@@ -8512,7 +8554,7 @@
       <c r="BH53" s="99"/>
       <c r="BI53" s="100"/>
     </row>
-    <row r="54" spans="1:62" s="43" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:62" s="43" customFormat="1" ht="3" customHeight="1">
       <c r="A54" s="101"/>
       <c r="B54" s="102"/>
       <c r="C54" s="68"/>
@@ -8575,7 +8617,7 @@
       <c r="BH54" s="103"/>
       <c r="BI54" s="103"/>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:62">
       <c r="B55" s="104" t="s">
         <v>179</v>
       </c>
@@ -8594,114 +8636,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="159" t="s">
+    <row r="57" spans="1:62" ht="16" thickBot="1">
+      <c r="A57" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="160"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="160"/>
-    </row>
-    <row r="58" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+    </row>
+    <row r="58" spans="1:62" ht="16" thickBot="1">
       <c r="A58" s="108" t="s">
         <v>181</v>
       </c>
       <c r="B58" s="108"/>
-      <c r="C58" s="161" t="s">
+      <c r="C58" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="162"/>
-      <c r="E58" s="163" t="s">
+      <c r="D58" s="166"/>
+      <c r="E58" s="167" t="s">
         <v>183</v>
       </c>
-      <c r="F58" s="164"/>
+      <c r="F58" s="168"/>
       <c r="G58" s="106"/>
       <c r="H58" s="107"/>
       <c r="BJ58" s="106"/>
     </row>
-    <row r="59" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:62" ht="15">
       <c r="A59" s="109" t="s">
         <v>184</v>
       </c>
       <c r="B59" s="109"/>
-      <c r="C59" s="149" t="s">
+      <c r="C59" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="150"/>
-      <c r="E59" s="165" t="s">
+      <c r="D59" s="154"/>
+      <c r="E59" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="166"/>
+      <c r="F59" s="170"/>
       <c r="G59" s="106"/>
       <c r="H59" s="107"/>
       <c r="BJ59" s="106"/>
     </row>
-    <row r="60" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:62" ht="15">
       <c r="A60" s="110" t="s">
         <v>186</v>
       </c>
       <c r="B60" s="110"/>
-      <c r="C60" s="149" t="s">
+      <c r="C60" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="150"/>
-      <c r="E60" s="151" t="s">
+      <c r="D60" s="154"/>
+      <c r="E60" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="152"/>
+      <c r="F60" s="156"/>
       <c r="G60" s="106"/>
       <c r="H60" s="107"/>
       <c r="BJ60" s="106"/>
     </row>
-    <row r="61" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:62" ht="15">
       <c r="A61" s="110" t="s">
         <v>188</v>
       </c>
       <c r="B61" s="110"/>
-      <c r="C61" s="149" t="s">
+      <c r="C61" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="150"/>
-      <c r="E61" s="151" t="s">
+      <c r="D61" s="154"/>
+      <c r="E61" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="152"/>
+      <c r="F61" s="156"/>
       <c r="G61" s="106"/>
       <c r="H61" s="107"/>
       <c r="BJ61" s="106"/>
     </row>
-    <row r="62" spans="1:62" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:62" ht="15">
       <c r="A62" s="110" t="s">
         <v>190</v>
       </c>
       <c r="B62" s="110"/>
-      <c r="C62" s="149" t="s">
+      <c r="C62" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="150"/>
-      <c r="E62" s="151" t="s">
+      <c r="D62" s="154"/>
+      <c r="E62" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="152"/>
+      <c r="F62" s="156"/>
       <c r="G62" s="106"/>
       <c r="H62" s="107"/>
       <c r="BJ62" s="106"/>
     </row>
-    <row r="63" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62" ht="16" thickBot="1">
       <c r="A63" s="111" t="s">
         <v>192</v>
       </c>
       <c r="B63" s="111"/>
-      <c r="C63" s="153" t="s">
+      <c r="C63" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="154"/>
-      <c r="E63" s="155" t="s">
+      <c r="D63" s="158"/>
+      <c r="E63" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="156"/>
+      <c r="F63" s="160"/>
       <c r="G63" s="106"/>
       <c r="H63" s="107"/>
       <c r="BJ63" s="106"/>
@@ -8754,17 +8796,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ52"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="4" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="10.5" style="106" customWidth="1" outlineLevel="1"/>
     <col min="5" max="6" width="4.5" style="106" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="4.5" style="107" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="8.5" style="106" customWidth="1" outlineLevel="1"/>
@@ -9279,63 +9321,63 @@
     <col min="16164" max="16384" width="9.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="24" thickBot="1">
       <c r="A1" s="136" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="18" customHeight="1">
+      <c r="A2" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="170"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="172" t="s">
+      <c r="J2" s="176" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-    </row>
-    <row r="3" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+    </row>
+    <row r="3" spans="1:35" ht="18" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -9345,48 +9387,48 @@
       <c r="G3" s="27"/>
       <c r="H3" s="26"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179" t="s">
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="176" t="s">
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="177"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="179" t="s">
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="179" t="s">
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="177"/>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="179" t="s">
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="177"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
-    </row>
-    <row r="4" spans="1:35" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="167"/>
-      <c r="B4" s="168"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="182"/>
+    </row>
+    <row r="4" spans="1:35" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="29" t="s">
         <v>40</v>
       </c>
@@ -9483,11 +9525,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+    <row r="5" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="158"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -9522,18 +9564,19 @@
       <c r="AH5" s="41"/>
       <c r="AI5" s="41"/>
     </row>
-    <row r="6" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A6" s="44" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="46">
-        <v>45658</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>259</v>
+        <v>279</v>
+      </c>
+      <c r="C6" s="148">
+        <v>45663</v>
+      </c>
+      <c r="D6" s="148">
+        <f>C6 + 7</f>
+        <v>45670</v>
       </c>
       <c r="E6" s="47">
         <v>8</v>
@@ -9542,14 +9585,14 @@
         <v>8</v>
       </c>
       <c r="G6" s="48">
-        <f t="shared" ref="G6:G10" si="0">F6-E6</f>
+        <f t="shared" ref="G6:G13" si="0">F6-E6</f>
         <v>0</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J6" s="51"/>
       <c r="K6" s="52"/>
@@ -9578,18 +9621,19 @@
       <c r="AH6" s="52"/>
       <c r="AI6" s="52"/>
     </row>
-    <row r="7" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A7" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="46">
-        <v>45658</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>259</v>
+        <v>280</v>
+      </c>
+      <c r="C7" s="148">
+        <v>45663</v>
+      </c>
+      <c r="D7" s="148">
+        <f t="shared" ref="D7:D19" si="1">C7 + 7</f>
+        <v>45670</v>
       </c>
       <c r="E7" s="47">
         <v>8</v>
@@ -9605,7 +9649,7 @@
         <v>99</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J7" s="51"/>
       <c r="K7" s="54"/>
@@ -9634,18 +9678,19 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="52"/>
     </row>
-    <row r="8" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A8" s="44" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="46">
-        <v>45658</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>259</v>
+        <v>281</v>
+      </c>
+      <c r="C8" s="148">
+        <v>45670</v>
+      </c>
+      <c r="D8" s="148">
+        <f t="shared" si="1"/>
+        <v>45677</v>
       </c>
       <c r="E8" s="47">
         <v>16</v>
@@ -9661,11 +9706,11 @@
         <v>99</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J8" s="55"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="54"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -9690,24 +9735,25 @@
       <c r="AH8" s="52"/>
       <c r="AI8" s="52"/>
     </row>
-    <row r="9" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A9" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="46">
-        <v>45658</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>259</v>
+      <c r="B9" s="147" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="148">
+        <v>45670</v>
+      </c>
+      <c r="D9" s="148">
+        <f t="shared" si="1"/>
+        <v>45677</v>
       </c>
       <c r="E9" s="59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="48">
         <f t="shared" si="0"/>
@@ -9717,14 +9763,14 @@
         <v>99</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J9" s="61"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
@@ -9746,24 +9792,25 @@
       <c r="AH9" s="62"/>
       <c r="AI9" s="62"/>
     </row>
-    <row r="10" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A10" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="46">
-        <v>45658</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="47">
-        <v>2</v>
-      </c>
-      <c r="F10" s="47">
-        <v>2</v>
+      <c r="B10" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="148">
+        <v>45670</v>
+      </c>
+      <c r="D10" s="148">
+        <f t="shared" si="1"/>
+        <v>45677</v>
+      </c>
+      <c r="E10" s="59">
+        <v>4</v>
+      </c>
+      <c r="F10" s="59">
+        <v>4</v>
       </c>
       <c r="G10" s="48">
         <f t="shared" si="0"/>
@@ -9773,75 +9820,76 @@
         <v>99</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-    </row>
-    <row r="11" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
-        <v>110</v>
+        <v>264</v>
+      </c>
+      <c r="J10" s="144"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+    </row>
+    <row r="11" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A11" s="44" t="s">
+        <v>293</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>266</v>
+        <v>292</v>
+      </c>
+      <c r="C11" s="148">
+        <v>45684</v>
+      </c>
+      <c r="D11" s="148">
+        <f>C11 + 21</f>
+        <v>45705</v>
       </c>
       <c r="E11" s="59">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F11" s="59">
-        <v>8</v>
-      </c>
-      <c r="G11" s="47">
-        <f t="shared" ref="G11:G16" si="1">F11-E11</f>
+        <v>16</v>
+      </c>
+      <c r="G11" s="48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="52"/>
+        <v>264</v>
+      </c>
+      <c r="J11" s="144"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
       <c r="P11" s="62"/>
-      <c r="Q11" s="56"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="S11" s="62"/>
-      <c r="T11" s="143"/>
+      <c r="T11" s="62"/>
       <c r="U11" s="62"/>
       <c r="V11" s="62"/>
       <c r="W11" s="62"/>
@@ -9858,53 +9906,54 @@
       <c r="AH11" s="62"/>
       <c r="AI11" s="62"/>
     </row>
-    <row r="12" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>113</v>
+    <row r="12" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A12" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>266</v>
+        <v>296</v>
+      </c>
+      <c r="C12" s="148">
+        <v>45691</v>
+      </c>
+      <c r="D12" s="148">
+        <f t="shared" si="1"/>
+        <v>45698</v>
       </c>
       <c r="E12" s="59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="59">
-        <v>8</v>
-      </c>
-      <c r="G12" s="47">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
+        <v>264</v>
+      </c>
+      <c r="J12" s="144"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="62"/>
-      <c r="R12" s="75"/>
+      <c r="R12" s="62"/>
       <c r="S12" s="62"/>
-      <c r="T12" s="143"/>
+      <c r="T12" s="62"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
       <c r="AC12" s="62"/>
       <c r="AD12" s="62"/>
@@ -9914,74 +9963,73 @@
       <c r="AH12" s="62"/>
       <c r="AI12" s="62"/>
     </row>
-    <row r="13" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="59">
-        <v>8</v>
-      </c>
-      <c r="F13" s="59">
-        <v>8</v>
-      </c>
-      <c r="G13" s="47">
+    <row r="13" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A13" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="148">
+        <v>45698</v>
+      </c>
+      <c r="D13" s="148">
         <f t="shared" si="1"/>
+        <v>45705</v>
+      </c>
+      <c r="E13" s="47">
+        <v>2</v>
+      </c>
+      <c r="F13" s="47">
+        <v>2</v>
+      </c>
+      <c r="G13" s="48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
+        <v>264</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
       <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-    </row>
-    <row r="14" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="77"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+    </row>
+    <row r="14" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A14" s="74" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+      <c r="C14" s="148">
+        <v>45705</v>
+      </c>
+      <c r="D14" s="148">
+        <f>C14 + 14</f>
+        <v>45719</v>
       </c>
       <c r="E14" s="59">
         <v>8</v>
@@ -9990,33 +10038,33 @@
         <v>8</v>
       </c>
       <c r="G14" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G14:G19" si="2">F14-E14</f>
         <v>0</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J14" s="61"/>
       <c r="K14" s="62"/>
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
       <c r="R14" s="62"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
       <c r="AB14" s="62"/>
       <c r="AC14" s="62"/>
       <c r="AD14" s="62"/>
@@ -10026,34 +10074,35 @@
       <c r="AH14" s="62"/>
       <c r="AI14" s="62"/>
     </row>
-    <row r="15" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A15" s="74" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>266</v>
+        <v>98</v>
+      </c>
+      <c r="C15" s="148">
+        <v>45719</v>
+      </c>
+      <c r="D15" s="148">
+        <f t="shared" si="1"/>
+        <v>45726</v>
       </c>
       <c r="E15" s="59">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="59">
-        <v>4</v>
-      </c>
-      <c r="G15" s="59">
-        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="47">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="62"/>
@@ -10063,10 +10112,10 @@
       <c r="O15" s="62"/>
       <c r="P15" s="62"/>
       <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
+      <c r="R15" s="75"/>
       <c r="S15" s="62"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="137"/>
       <c r="W15" s="137"/>
       <c r="X15" s="137"/>
@@ -10082,168 +10131,208 @@
       <c r="AH15" s="62"/>
       <c r="AI15" s="62"/>
     </row>
-    <row r="16" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A16" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="47">
-        <v>2</v>
-      </c>
-      <c r="F16" s="47">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="148">
+        <v>45719</v>
+      </c>
+      <c r="D16" s="148">
+        <f t="shared" si="1"/>
+        <v>45726</v>
+      </c>
+      <c r="E16" s="59">
+        <v>8</v>
+      </c>
+      <c r="F16" s="59">
+        <v>8</v>
       </c>
       <c r="G16" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-    </row>
-    <row r="17" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-    </row>
-    <row r="18" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="140"/>
-      <c r="W18" s="140"/>
-      <c r="X18" s="140"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-    </row>
-    <row r="19" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>124</v>
+        <v>264</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+    </row>
+    <row r="17" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A17" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="148">
+        <v>45726</v>
+      </c>
+      <c r="D17" s="148">
+        <f t="shared" si="1"/>
+        <v>45733</v>
+      </c>
+      <c r="E17" s="59">
+        <v>8</v>
+      </c>
+      <c r="F17" s="59">
+        <v>8</v>
+      </c>
+      <c r="G17" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+    </row>
+    <row r="18" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A18" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="148">
+        <v>45733</v>
+      </c>
+      <c r="D18" s="148">
+        <f t="shared" si="1"/>
+        <v>45740</v>
+      </c>
+      <c r="E18" s="59">
+        <v>4</v>
+      </c>
+      <c r="F18" s="59">
+        <v>4</v>
+      </c>
+      <c r="G18" s="59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+    </row>
+    <row r="19" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A19" s="74" t="s">
+        <v>120</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>274</v>
+        <v>263</v>
+      </c>
+      <c r="C19" s="148">
+        <v>45740</v>
+      </c>
+      <c r="D19" s="148">
+        <f t="shared" si="1"/>
+        <v>45747</v>
       </c>
       <c r="E19" s="47">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F19" s="47">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G19" s="47">
-        <f t="shared" ref="G19:G26" si="2">F19-E19</f>
-        <v>8</v>
-      </c>
-      <c r="H19" s="145" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J19" s="55"/>
+        <v>264</v>
+      </c>
+      <c r="J19" s="52"/>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
@@ -10254,13 +10343,13 @@
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
       <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
       <c r="AB19" s="52"/>
       <c r="AC19" s="52"/>
       <c r="AD19" s="52"/>
@@ -10270,198 +10359,166 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="52"/>
     </row>
-    <row r="20" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="59">
+    <row r="20" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+    </row>
+    <row r="21" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="162"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+    </row>
+    <row r="22" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A22" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="148">
+        <v>45747</v>
+      </c>
+      <c r="D22" s="148">
+        <f t="shared" ref="D22:D28" si="3">C22 + 7</f>
+        <v>45754</v>
+      </c>
+      <c r="E22" s="47">
         <v>8</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="47">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-    </row>
-    <row r="21" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="59">
+      <c r="F22" s="47">
+        <v>16</v>
+      </c>
+      <c r="G22" s="47">
+        <f t="shared" ref="G22:G28" si="4">F22-E22</f>
         <v>8</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="47">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-    </row>
-    <row r="22" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="59">
-        <v>8</v>
-      </c>
-      <c r="F22" s="59">
-        <v>8</v>
-      </c>
-      <c r="G22" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="H22" s="145" t="s">
         <v>99</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-    </row>
-    <row r="23" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="142"/>
+      <c r="X22" s="142"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+    </row>
+    <row r="23" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A23" s="74" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="C23" s="148">
+        <v>45747</v>
+      </c>
+      <c r="D23" s="148">
+        <f t="shared" si="3"/>
+        <v>45754</v>
       </c>
       <c r="E23" s="59">
-        <v>24</v>
-      </c>
-      <c r="F23" s="59">
-        <v>24</v>
-      </c>
-      <c r="G23" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="145" t="s">
-        <v>99</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="47">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J23" s="61"/>
       <c r="K23" s="62"/>
@@ -10476,9 +10533,9 @@
       <c r="T23" s="62"/>
       <c r="U23" s="62"/>
       <c r="V23" s="75"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="142"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
       <c r="AA23" s="62"/>
       <c r="AB23" s="62"/>
@@ -10490,30 +10547,35 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
     </row>
-    <row r="24" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="74" t="s">
-        <v>136</v>
+    <row r="24" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A24" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+        <v>272</v>
+      </c>
+      <c r="C24" s="148">
+        <v>45754</v>
+      </c>
+      <c r="D24" s="148">
+        <f t="shared" si="3"/>
+        <v>45761</v>
+      </c>
       <c r="E24" s="59">
-        <v>0</v>
-      </c>
-      <c r="F24" s="59">
         <v>8</v>
       </c>
-      <c r="G24" s="59">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H24" s="145" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="144"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="47">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="61"/>
       <c r="K24" s="62"/>
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
@@ -10526,10 +10588,10 @@
       <c r="T24" s="62"/>
       <c r="U24" s="62"/>
       <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
+      <c r="W24" s="75"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
-      <c r="Z24" s="142"/>
+      <c r="Z24" s="62"/>
       <c r="AA24" s="62"/>
       <c r="AB24" s="62"/>
       <c r="AC24" s="62"/>
@@ -10540,30 +10602,37 @@
       <c r="AH24" s="62"/>
       <c r="AI24" s="62"/>
     </row>
-    <row r="25" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A25" s="74" t="s">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+        <v>266</v>
+      </c>
+      <c r="C25" s="148">
+        <v>45763</v>
+      </c>
+      <c r="D25" s="148">
+        <f t="shared" si="3"/>
+        <v>45770</v>
+      </c>
       <c r="E25" s="59">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F25" s="59">
         <v>8</v>
       </c>
-      <c r="G25" s="59">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="G25" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H25" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="144"/>
+      <c r="I25" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J25" s="61"/>
       <c r="K25" s="62"/>
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
@@ -10577,10 +10646,10 @@
       <c r="U25" s="62"/>
       <c r="V25" s="62"/>
       <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="142"/>
       <c r="Z25" s="62"/>
-      <c r="AA25" s="142"/>
+      <c r="AA25" s="62"/>
       <c r="AB25" s="62"/>
       <c r="AC25" s="62"/>
       <c r="AD25" s="62"/>
@@ -10590,260 +10659,254 @@
       <c r="AH25" s="62"/>
       <c r="AI25" s="62"/>
     </row>
-    <row r="26" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A26" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" s="47">
+        <v>136</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="59">
         <v>0</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47">
-        <f t="shared" si="2"/>
+      <c r="F26" s="59">
+        <v>8</v>
+      </c>
+      <c r="G26" s="59">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H26" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J26" s="144"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="142"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+    </row>
+    <row r="27" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A27" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="59">
         <v>0</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="F27" s="59">
+        <v>8</v>
+      </c>
+      <c r="G27" s="59">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H27" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" s="144"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="142"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+    </row>
+    <row r="28" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A28" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="148">
+        <v>45763</v>
+      </c>
+      <c r="D28" s="148">
+        <f t="shared" si="3"/>
+        <v>45770</v>
+      </c>
+      <c r="E28" s="47">
+        <v>0</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-    </row>
-    <row r="27" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-    </row>
-    <row r="28" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="157" t="s">
+      <c r="I28" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" s="81"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+    </row>
+    <row r="29" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+    </row>
+    <row r="30" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="140"/>
-      <c r="Z28" s="140"/>
-      <c r="AA28" s="140"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-    </row>
-    <row r="29" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
+      <c r="B30" s="162"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="140"/>
+      <c r="Z30" s="140"/>
+      <c r="AA30" s="140"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+    </row>
+    <row r="31" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A31" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="E29" s="59">
-        <v>16</v>
-      </c>
-      <c r="F29" s="59">
-        <v>16</v>
-      </c>
-      <c r="G29" s="47">
-        <f t="shared" ref="G29:G34" si="3">F29-E29</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="142"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="62"/>
-    </row>
-    <row r="30" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="E30" s="59">
-        <v>16</v>
-      </c>
-      <c r="F30" s="59">
-        <v>16</v>
-      </c>
-      <c r="G30" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="142"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-    </row>
-    <row r="31" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>289</v>
+      <c r="B31" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="148">
+        <v>45768</v>
+      </c>
+      <c r="D31" s="148">
+        <f t="shared" ref="D31:D32" si="5">C31 + 7</f>
+        <v>45775</v>
       </c>
       <c r="E31" s="59">
         <v>16</v>
@@ -10852,14 +10915,14 @@
         <v>16</v>
       </c>
       <c r="G31" s="47">
-        <f t="shared" si="3"/>
+        <f>F31-E31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76" t="s">
-        <v>112</v>
+      <c r="H31" s="145" t="s">
+        <v>99</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J31" s="61"/>
       <c r="K31" s="62"/>
@@ -10876,46 +10939,47 @@
       <c r="V31" s="62"/>
       <c r="W31" s="62"/>
       <c r="X31" s="62"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="142"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="142"/>
+      <c r="AA31" s="142"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
       <c r="AG31" s="52"/>
       <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-    </row>
-    <row r="32" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AI31" s="62"/>
+    </row>
+    <row r="32" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A32" s="74" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>289</v>
+        <v>270</v>
+      </c>
+      <c r="C32" s="148">
+        <v>45768</v>
+      </c>
+      <c r="D32" s="148">
+        <f t="shared" si="5"/>
+        <v>45775</v>
       </c>
       <c r="E32" s="59">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F32" s="59">
         <v>16</v>
       </c>
       <c r="G32" s="47">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H32" s="76" t="s">
-        <v>112</v>
+        <f>F32-E32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="145" t="s">
+        <v>99</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J32" s="61"/>
       <c r="K32" s="62"/>
@@ -10932,232 +10996,273 @@
       <c r="V32" s="62"/>
       <c r="W32" s="62"/>
       <c r="X32" s="62"/>
-      <c r="Y32" s="52"/>
+      <c r="Y32" s="75"/>
       <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="75"/>
+      <c r="AA32" s="142"/>
+      <c r="AB32" s="142"/>
       <c r="AC32" s="62"/>
-      <c r="AD32" s="142"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
       <c r="AG32" s="52"/>
       <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-    </row>
-    <row r="33" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AI32" s="62"/>
+    </row>
+    <row r="33" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A33" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>289</v>
+        <v>142</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="148">
+        <v>45775</v>
+      </c>
+      <c r="D33" s="148">
+        <f>C33 + 7</f>
+        <v>45782</v>
       </c>
       <c r="E33" s="59">
-        <v>8</v>
-      </c>
-      <c r="F33" s="47">
         <v>16</v>
       </c>
+      <c r="F33" s="59">
+        <v>16</v>
+      </c>
       <c r="G33" s="47">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>112</v>
+        <f t="shared" ref="G33:G37" si="6">F33-E33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="145" t="s">
+        <v>99</v>
       </c>
       <c r="I33" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
+        <v>264</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
       <c r="U33" s="62"/>
       <c r="V33" s="62"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
       <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="142"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="142"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
       <c r="AE33" s="52"/>
       <c r="AF33" s="52"/>
       <c r="AG33" s="52"/>
       <c r="AH33" s="52"/>
       <c r="AI33" s="52"/>
     </row>
-    <row r="34" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A34" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="E34" s="47">
+        <v>144</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="148">
+        <v>45776</v>
+      </c>
+      <c r="D34" s="148">
+        <f t="shared" ref="D34:D37" si="7">C34 + 7</f>
+        <v>45783</v>
+      </c>
+      <c r="E34" s="59">
+        <v>16</v>
+      </c>
+      <c r="F34" s="59">
+        <v>16</v>
+      </c>
+      <c r="G34" s="47">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="76" t="s">
-        <v>112</v>
+      <c r="H34" s="145" t="s">
+        <v>99</v>
       </c>
       <c r="I34" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
+        <v>264</v>
+      </c>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
       <c r="U34" s="62"/>
       <c r="V34" s="62"/>
       <c r="W34" s="62"/>
       <c r="X34" s="62"/>
       <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="52"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="142"/>
       <c r="AD34" s="52"/>
-      <c r="AE34" s="142"/>
+      <c r="AE34" s="52"/>
       <c r="AF34" s="52"/>
       <c r="AG34" s="52"/>
       <c r="AH34" s="52"/>
       <c r="AI34" s="52"/>
     </row>
-    <row r="35" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="88"/>
-      <c r="AF35" s="88"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="88"/>
-      <c r="AI35" s="88"/>
-    </row>
-    <row r="36" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="158"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="140"/>
-      <c r="AD36" s="140"/>
-      <c r="AE36" s="140"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-    </row>
-    <row r="37" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
-        <v>159</v>
+    <row r="35" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A35" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="148">
+        <v>45777</v>
+      </c>
+      <c r="D35" s="148">
+        <f t="shared" si="7"/>
+        <v>45784</v>
+      </c>
+      <c r="E35" s="59">
+        <v>8</v>
+      </c>
+      <c r="F35" s="59">
+        <v>16</v>
+      </c>
+      <c r="G35" s="47">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H35" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="142"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+    </row>
+    <row r="36" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A36" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="148">
+        <v>45778</v>
+      </c>
+      <c r="D36" s="148">
+        <f t="shared" si="7"/>
+        <v>45785</v>
+      </c>
+      <c r="E36" s="59">
+        <v>8</v>
+      </c>
+      <c r="F36" s="47">
+        <v>16</v>
+      </c>
+      <c r="G36" s="47">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H36" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" s="55"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="142"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+    </row>
+    <row r="37" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A37" s="74" t="s">
+        <v>150</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>291</v>
+        <v>274</v>
+      </c>
+      <c r="C37" s="148">
+        <v>45779</v>
+      </c>
+      <c r="D37" s="148">
+        <f t="shared" si="7"/>
+        <v>45786</v>
       </c>
       <c r="E37" s="47">
-        <v>8</v>
-      </c>
-      <c r="F37" s="47">
         <v>0</v>
       </c>
+      <c r="F37" s="47"/>
       <c r="G37" s="47">
-        <f>F37-E37</f>
-        <v>-8</v>
-      </c>
-      <c r="H37" s="49" t="s">
-        <v>112</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="145" t="s">
+        <v>99</v>
       </c>
       <c r="I37" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J37" s="55"/>
       <c r="K37" s="52"/>
@@ -11170,15 +11275,15 @@
       <c r="R37" s="52"/>
       <c r="S37" s="52"/>
       <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
       <c r="Y37" s="52"/>
       <c r="Z37" s="52"/>
       <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="75"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="52"/>
       <c r="AD37" s="52"/>
       <c r="AE37" s="142"/>
       <c r="AF37" s="52"/>
@@ -11186,130 +11291,95 @@
       <c r="AH37" s="52"/>
       <c r="AI37" s="52"/>
     </row>
-    <row r="38" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="E38" s="59">
-        <v>8</v>
-      </c>
-      <c r="F38" s="59">
-        <v>8</v>
-      </c>
-      <c r="G38" s="47">
-        <f t="shared" ref="G38" si="4">F38-E38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="142"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="52"/>
-      <c r="AI38" s="52"/>
-    </row>
-    <row r="39" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="E39" s="47">
-        <v>8</v>
-      </c>
-      <c r="F39" s="47">
-        <v>8</v>
-      </c>
-      <c r="G39" s="47">
-        <f>F39-E39</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="I39" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J39" s="81"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="75"/>
-      <c r="AE39" s="75"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-    </row>
-    <row r="40" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="88"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="88"/>
+      <c r="AD38" s="88"/>
+      <c r="AE38" s="88"/>
+      <c r="AF38" s="88"/>
+      <c r="AG38" s="88"/>
+      <c r="AH38" s="88"/>
+      <c r="AI38" s="88"/>
+    </row>
+    <row r="39" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="162"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="140"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+    </row>
+    <row r="40" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A40" s="44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>291</v>
+        <v>275</v>
+      </c>
+      <c r="C40" s="148">
+        <v>45796</v>
+      </c>
+      <c r="D40" s="148">
+        <f t="shared" ref="D40:D43" si="8">C40 + 7</f>
+        <v>45803</v>
       </c>
       <c r="E40" s="47">
         <v>8</v>
@@ -11321,13 +11391,13 @@
         <f>F40-E40</f>
         <v>-8</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="49" t="s">
         <v>112</v>
       </c>
       <c r="I40" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J40" s="81"/>
+        <v>264</v>
+      </c>
+      <c r="J40" s="55"/>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
       <c r="M40" s="52"/>
@@ -11346,118 +11416,159 @@
       <c r="Z40" s="52"/>
       <c r="AA40" s="52"/>
       <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
+      <c r="AC40" s="75"/>
       <c r="AD40" s="52"/>
-      <c r="AE40" s="77"/>
+      <c r="AE40" s="52"/>
       <c r="AF40" s="52"/>
       <c r="AG40" s="52"/>
       <c r="AH40" s="52"/>
       <c r="AI40" s="52"/>
     </row>
-    <row r="41" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71"/>
-    </row>
-    <row r="42" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="41"/>
-    </row>
-    <row r="43" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A41" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="148">
+        <v>45803</v>
+      </c>
+      <c r="D41" s="148">
+        <f t="shared" si="8"/>
+        <v>45810</v>
+      </c>
+      <c r="E41" s="59">
+        <v>8</v>
+      </c>
+      <c r="F41" s="59">
+        <v>8</v>
+      </c>
+      <c r="G41" s="47">
+        <f t="shared" ref="G41" si="9">F41-E41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="142"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+    </row>
+    <row r="42" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A42" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="148">
+        <v>45810</v>
+      </c>
+      <c r="D42" s="148">
+        <f>C42 + 7</f>
+        <v>45817</v>
+      </c>
+      <c r="E42" s="47">
+        <v>8</v>
+      </c>
+      <c r="F42" s="47">
+        <v>8</v>
+      </c>
+      <c r="G42" s="47">
+        <f>F42-E42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" s="81"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="75"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+    </row>
+    <row r="43" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A43" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="46">
-        <v>40466</v>
+        <v>278</v>
+      </c>
+      <c r="C43" s="148">
+        <v>45810</v>
+      </c>
+      <c r="D43" s="148">
+        <f t="shared" si="8"/>
+        <v>45817</v>
       </c>
       <c r="E43" s="47">
         <v>8</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="47">
+        <v>0</v>
+      </c>
       <c r="G43" s="47">
         <f>F43-E43</f>
         <v>-8</v>
       </c>
-      <c r="H43" s="49" t="s">
+      <c r="H43" s="47" t="s">
         <v>112</v>
       </c>
       <c r="I43" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J43" s="55"/>
+        <v>264</v>
+      </c>
+      <c r="J43" s="81"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52"/>
@@ -11469,139 +11580,124 @@
       <c r="S43" s="52"/>
       <c r="T43" s="52"/>
       <c r="U43" s="52"/>
-      <c r="V43" s="91"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="91"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="91"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
       <c r="AA43" s="52"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="75"/>
+      <c r="AE43" s="77"/>
+      <c r="AF43" s="52"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
     </row>
-    <row r="44" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D44" s="46">
+    <row r="44" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="71"/>
+    </row>
+    <row r="45" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A45" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="162"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
+    </row>
+    <row r="46" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A46" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="46">
         <v>40466</v>
       </c>
-      <c r="E44" s="47">
-        <v>8</v>
-      </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47">
-        <f>F44-E44</f>
-        <v>-8</v>
-      </c>
-      <c r="H44" s="49" t="s">
+      <c r="E46" s="47">
+        <v>3</v>
+      </c>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47">
+        <f>F46-E46</f>
+        <v>-3</v>
+      </c>
+      <c r="H46" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="75"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52"/>
-      <c r="AI44" s="52"/>
-    </row>
-    <row r="45" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D45" s="46">
-        <v>40471</v>
-      </c>
-      <c r="E45" s="47">
-        <v>4</v>
-      </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47">
-        <f>F45-E45</f>
-        <v>-4</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J45" s="55"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="77"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="52"/>
-      <c r="AI45" s="52"/>
-    </row>
-    <row r="46" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50"/>
+      <c r="I46" s="50" t="s">
+        <v>264</v>
+      </c>
       <c r="J46" s="55"/>
       <c r="K46" s="52"/>
       <c r="L46" s="52"/>
@@ -11614,120 +11710,265 @@
       <c r="S46" s="52"/>
       <c r="T46" s="52"/>
       <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="91"/>
       <c r="AA46" s="52"/>
       <c r="AB46" s="52"/>
       <c r="AC46" s="52"/>
       <c r="AD46" s="52"/>
       <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
+      <c r="AF46" s="75"/>
       <c r="AG46" s="52"/>
       <c r="AH46" s="52"/>
       <c r="AI46" s="52"/>
     </row>
-    <row r="47" spans="1:35" s="43" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="101"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="103"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="103"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="103"/>
-      <c r="X47" s="103"/>
-      <c r="Y47" s="103"/>
-      <c r="Z47" s="103"/>
-      <c r="AA47" s="103"/>
-      <c r="AB47" s="103"/>
-      <c r="AC47" s="103"/>
-      <c r="AD47" s="103"/>
-      <c r="AE47" s="103"/>
-      <c r="AF47" s="103"/>
-      <c r="AG47" s="103"/>
-      <c r="AH47" s="103"/>
-      <c r="AI47" s="103"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B48" s="104" t="s">
+    <row r="47" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A47" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="46">
+        <v>40466</v>
+      </c>
+      <c r="E47" s="47">
+        <v>8</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47">
+        <f>F47-E47</f>
+        <v>-8</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J47" s="55"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+    </row>
+    <row r="48" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A48" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="46">
+        <v>40471</v>
+      </c>
+      <c r="E48" s="47">
+        <v>4</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47">
+        <f>F48-E48</f>
+        <v>-4</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J48" s="55"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="77"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+    </row>
+    <row r="49" spans="1:36" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+    </row>
+    <row r="50" spans="1:36" s="43" customFormat="1" ht="3" customHeight="1">
+      <c r="A50" s="101"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="103"/>
+      <c r="AA50" s="103"/>
+      <c r="AB50" s="103"/>
+      <c r="AC50" s="103"/>
+      <c r="AD50" s="103"/>
+      <c r="AE50" s="103"/>
+      <c r="AF50" s="103"/>
+      <c r="AG50" s="103"/>
+      <c r="AH50" s="103"/>
+      <c r="AI50" s="103"/>
+    </row>
+    <row r="51" spans="1:36">
+      <c r="B51" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="105">
-        <f>SUM(E5:E46)</f>
-        <v>246</v>
-      </c>
-      <c r="F48" s="105">
-        <f>SUM(F5:F46)</f>
-        <v>234</v>
-      </c>
-      <c r="G48" s="105">
-        <f>ABS(SUM(G5:G46))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="159" t="s">
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="105">
+        <f>SUM(E5:E49)</f>
+        <v>259</v>
+      </c>
+      <c r="F51" s="105">
+        <f>SUM(F5:F49)</f>
+        <v>252</v>
+      </c>
+      <c r="G51" s="105">
+        <f>ABS(SUM(G5:G49))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" ht="15">
+      <c r="A53" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="160"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="160"/>
-    </row>
-    <row r="51" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108" t="s">
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+    </row>
+    <row r="54" spans="1:36" ht="16" thickBot="1">
+      <c r="A54" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="108"/>
-      <c r="C51" s="161" t="s">
+      <c r="B54" s="108"/>
+      <c r="C54" s="165" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="162"/>
-      <c r="E51" s="163" t="s">
+      <c r="D54" s="166"/>
+      <c r="E54" s="167" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="164"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="107"/>
-      <c r="AJ51" s="106"/>
-    </row>
-    <row r="52" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="109" t="s">
-        <v>270</v>
-      </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="149" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" s="150"/>
-      <c r="E52" s="165" t="s">
+      <c r="F54" s="168"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="107"/>
+      <c r="AJ54" s="106"/>
+    </row>
+    <row r="55" spans="1:36" ht="15">
+      <c r="A55" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="F52" s="166"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="107"/>
-      <c r="AJ52" s="106"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="153" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="154"/>
+      <c r="E55" s="169" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" s="170"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
+      <c r="AJ55" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -11741,16 +11982,16 @@
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11759,25 +12000,81 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8BE596-0BAB-E340-ADBF-68603683A998}">
+  <dimension ref="H10:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
-        <v>255</v>
-      </c>
+    <row r="10" spans="8:9" ht="17">
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+    </row>
+    <row r="11" spans="8:9" ht="17">
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+    </row>
+    <row r="12" spans="8:9" ht="17">
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+    </row>
+    <row r="13" spans="8:9" ht="17">
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+    </row>
+    <row r="14" spans="8:9" ht="17">
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+    </row>
+    <row r="15" spans="8:9" ht="17">
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+    </row>
+    <row r="16" spans="8:9" ht="17">
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+    </row>
+    <row r="17" spans="8:9" ht="17">
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+    </row>
+    <row r="18" spans="8:9" ht="17">
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+    </row>
+    <row r="19" spans="8:9" ht="17">
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+    </row>
+    <row r="20" spans="8:9" ht="17">
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+    </row>
+    <row r="21" spans="8:9" ht="17">
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+    </row>
+    <row r="22" spans="8:9" ht="17">
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+    </row>
+    <row r="23" spans="8:9" ht="17">
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+    </row>
+    <row r="24" spans="8:9" ht="17">
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+    </row>
+    <row r="25" spans="8:9" ht="17">
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9A598-3C7F-254C-AF4E-62983FCE1FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E16411-71EF-F142-B351-FBB3341475E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,9 +859,6 @@
     <t>TAK</t>
   </si>
   <si>
-    <t>On-Boarding Prozess geplannt</t>
-  </si>
-  <si>
     <t>Datenbank Struktur</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
     <t>Erfassen von Aufgaben</t>
   </si>
   <si>
-    <t>Architektur und Skalierungplan</t>
-  </si>
-  <si>
     <t>User Verwaltung</t>
   </si>
   <si>
@@ -910,9 +904,6 @@
     <t>Aufbau einer Test umbeung</t>
   </si>
   <si>
-    <t>Marketing Video Aufgenommen und Geschnitten</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -959,6 +950,15 @@
   </si>
   <si>
     <t>Backend Endpoints bereitstellen</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Wechsel geplannt</t>
+  </si>
+  <si>
+    <t>Architektur und Deployment</t>
   </si>
 </sst>
 </file>
@@ -8798,8 +8798,8 @@
   </sheetPr>
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -9323,7 +9323,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="24" thickBot="1">
       <c r="A1" s="136" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" customHeight="1">
@@ -9569,7 +9569,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" s="148">
         <v>45663</v>
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="148">
         <v>45663</v>
@@ -9683,7 +9683,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" s="148">
         <v>45670</v>
@@ -9740,7 +9740,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="148">
         <v>45670</v>
@@ -9797,7 +9797,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C10" s="148">
         <v>45670</v>
@@ -9851,10 +9851,10 @@
     </row>
     <row r="11" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A11" s="44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C11" s="148">
         <v>45684</v>
@@ -9908,10 +9908,10 @@
     </row>
     <row r="12" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A12" s="44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C12" s="148">
         <v>45691</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="13" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A13" s="44" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>109</v>
@@ -10497,7 +10497,7 @@
         <v>127</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="C23" s="148">
         <v>45747</v>
@@ -10509,10 +10509,12 @@
       <c r="E23" s="59">
         <v>8</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="59">
+        <v>3</v>
+      </c>
       <c r="G23" s="47">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>112</v>
@@ -10540,7 +10542,7 @@
       <c r="AA23" s="62"/>
       <c r="AB23" s="62"/>
       <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
+      <c r="AD23" s="142"/>
       <c r="AE23" s="62"/>
       <c r="AF23" s="62"/>
       <c r="AG23" s="62"/>
@@ -10552,7 +10554,7 @@
         <v>129</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="C24" s="148">
         <v>45754</v>
@@ -10564,10 +10566,12 @@
       <c r="E24" s="59">
         <v>8</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="59">
+        <v>3</v>
+      </c>
       <c r="G24" s="47">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>112</v>
@@ -10595,7 +10599,7 @@
       <c r="AA24" s="62"/>
       <c r="AB24" s="62"/>
       <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
+      <c r="AD24" s="142"/>
       <c r="AE24" s="62"/>
       <c r="AF24" s="62"/>
       <c r="AG24" s="62"/>
@@ -10607,7 +10611,7 @@
         <v>131</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="148">
         <v>45763</v>
@@ -10664,7 +10668,7 @@
         <v>136</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C26" s="148"/>
       <c r="D26" s="148"/>
@@ -10713,10 +10717,10 @@
     </row>
     <row r="27" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A27" s="74" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C27" s="148"/>
       <c r="D27" s="148"/>
@@ -10765,10 +10769,10 @@
     </row>
     <row r="28" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A28" s="74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="148">
         <v>45763</v>
@@ -10899,7 +10903,7 @@
         <v>139</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C31" s="148">
         <v>45768</v>
@@ -10956,7 +10960,7 @@
         <v>141</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C32" s="148">
         <v>45768</v>
@@ -11013,7 +11017,7 @@
         <v>142</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C33" s="148">
         <v>45775</v>
@@ -11070,7 +11074,7 @@
         <v>144</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" s="148">
         <v>45776</v>
@@ -11127,7 +11131,7 @@
         <v>146</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C35" s="148">
         <v>45777</v>
@@ -11184,7 +11188,7 @@
         <v>148</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C36" s="148">
         <v>45778</v>
@@ -11241,7 +11245,7 @@
         <v>150</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C37" s="148">
         <v>45779</v>
@@ -11372,7 +11376,7 @@
         <v>159</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C40" s="148">
         <v>45796</v>
@@ -11429,7 +11433,7 @@
         <v>161</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C41" s="148">
         <v>45803</v>
@@ -11442,11 +11446,11 @@
         <v>8</v>
       </c>
       <c r="F41" s="59">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G41" s="47">
         <f t="shared" ref="G41" si="9">F41-E41</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H41" s="145" t="s">
         <v>99</v>
@@ -11486,7 +11490,7 @@
         <v>163</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C42" s="148">
         <v>45810</v>
@@ -11543,7 +11547,7 @@
         <v>165</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43" s="148">
         <v>45810</v>
@@ -11556,11 +11560,11 @@
         <v>8</v>
       </c>
       <c r="F43" s="47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G43" s="47">
         <f>F43-E43</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H43" s="47" t="s">
         <v>112</v>
@@ -11676,10 +11680,10 @@
         <v>168</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D46" s="46">
         <v>40466</v>
@@ -11687,10 +11691,12 @@
       <c r="E46" s="47">
         <v>3</v>
       </c>
-      <c r="F46" s="47"/>
+      <c r="F46" s="47">
+        <v>3</v>
+      </c>
       <c r="G46" s="47">
         <f>F46-E46</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H46" s="49" t="s">
         <v>112</v>
@@ -11730,10 +11736,10 @@
         <v>170</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D47" s="46">
         <v>40466</v>
@@ -11741,10 +11747,12 @@
       <c r="E47" s="47">
         <v>8</v>
       </c>
-      <c r="F47" s="47"/>
+      <c r="F47" s="47">
+        <v>8</v>
+      </c>
       <c r="G47" s="47">
         <f>F47-E47</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>112</v>
@@ -11787,7 +11795,7 @@
         <v>173</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D48" s="46">
         <v>40471</v>
@@ -11795,10 +11803,12 @@
       <c r="E48" s="47">
         <v>4</v>
       </c>
-      <c r="F48" s="47"/>
+      <c r="F48" s="47">
+        <v>4</v>
+      </c>
       <c r="G48" s="47">
         <f>F48-E48</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H48" s="49" t="s">
         <v>112</v>
@@ -11919,11 +11929,11 @@
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F49)</f>
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="G51" s="105">
         <f>ABS(SUM(G5:G49))</f>
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="15">
@@ -11955,11 +11965,11 @@
     </row>
     <row r="55" spans="1:36" ht="15">
       <c r="A55" s="109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="109"/>
       <c r="C55" s="153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D55" s="154"/>
       <c r="E55" s="169" t="s">

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E16411-71EF-F142-B351-FBB3341475E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB6D2DD-4D6B-2C45-9ECE-44E04E14036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorgangsliste Leer" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="PERT Leer" sheetId="9" r:id="rId5"/>
     <sheet name="PERT" sheetId="10" r:id="rId6"/>
     <sheet name="GANTT Leer" sheetId="11" r:id="rId7"/>
-    <sheet name="GANTT" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId9"/>
-    <sheet name="Organigram" sheetId="8" r:id="rId10"/>
+    <sheet name="GANTT IST" sheetId="13" r:id="rId8"/>
+    <sheet name="GANTT" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId11"/>
+    <sheet name="Organigram" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="299">
   <si>
     <t>Kosten</t>
   </si>
@@ -919,9 +921,6 @@
     <t>Testkonzept</t>
   </si>
   <si>
-    <t>Berechitgungen</t>
-  </si>
-  <si>
     <t>Testdruchführung</t>
   </si>
   <si>
@@ -955,10 +954,13 @@
     <t>Dokumentation</t>
   </si>
   <si>
-    <t>Wechsel geplannt</t>
-  </si>
-  <si>
     <t>Architektur und Deployment</t>
+  </si>
+  <si>
+    <t>Security by Design</t>
+  </si>
+  <si>
+    <t>Berechtigungen</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2416,11 +2418,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2950,6 +2965,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3620,6 +3644,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEE9E5F-EAEB-954B-8E78-C7732AD800FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8BE596-0BAB-E340-ADBF-68603683A998}">
+  <dimension ref="H10:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="10" spans="8:9" ht="17">
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+    </row>
+    <row r="11" spans="8:9" ht="17">
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+    </row>
+    <row r="12" spans="8:9" ht="17">
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+    </row>
+    <row r="13" spans="8:9" ht="17">
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+    </row>
+    <row r="14" spans="8:9" ht="17">
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+    </row>
+    <row r="15" spans="8:9" ht="17">
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+    </row>
+    <row r="16" spans="8:9" ht="17">
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+    </row>
+    <row r="17" spans="8:9" ht="17">
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+    </row>
+    <row r="18" spans="8:9" ht="17">
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+    </row>
+    <row r="19" spans="8:9" ht="17">
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+    </row>
+    <row r="20" spans="8:9" ht="17">
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+    </row>
+    <row r="21" spans="8:9" ht="17">
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+    </row>
+    <row r="22" spans="8:9" ht="17">
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+    </row>
+    <row r="23" spans="8:9" ht="17">
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+    </row>
+    <row r="24" spans="8:9" ht="17">
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+    </row>
+    <row r="25" spans="8:9" ht="17">
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8792,14 +8907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7655811-A9DB-5242-AD07-B3F8A400B4CB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A3" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -9585,7 +9700,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="48">
-        <f t="shared" ref="G6:G13" si="0">F6-E6</f>
+        <f>F6-E6</f>
         <v>0</v>
       </c>
       <c r="H6" s="49" t="s">
@@ -9632,7 +9747,7 @@
         <v>45663</v>
       </c>
       <c r="D7" s="148">
-        <f t="shared" ref="D7:D19" si="1">C7 + 7</f>
+        <f t="shared" ref="D7:D19" si="0">C7 + 7</f>
         <v>45670</v>
       </c>
       <c r="E7" s="47">
@@ -9642,7 +9757,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="48">
-        <f t="shared" si="0"/>
+        <f>F7-E7</f>
         <v>0</v>
       </c>
       <c r="H7" s="49" t="s">
@@ -9689,7 +9804,7 @@
         <v>45670</v>
       </c>
       <c r="D8" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45677</v>
       </c>
       <c r="E8" s="47">
@@ -9699,7 +9814,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="48">
-        <f t="shared" si="0"/>
+        <f>F8-E8</f>
         <v>0</v>
       </c>
       <c r="H8" s="49" t="s">
@@ -9746,7 +9861,7 @@
         <v>45670</v>
       </c>
       <c r="D9" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45677</v>
       </c>
       <c r="E9" s="59">
@@ -9756,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="48">
-        <f t="shared" si="0"/>
+        <f>F9-E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="49" t="s">
@@ -9797,13 +9912,13 @@
         <v>108</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="148">
         <v>45670</v>
       </c>
       <c r="D10" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45677</v>
       </c>
       <c r="E10" s="59">
@@ -9813,7 +9928,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="48">
-        <f t="shared" si="0"/>
+        <f>F10-E10</f>
         <v>0</v>
       </c>
       <c r="H10" s="49" t="s">
@@ -9851,10 +9966,10 @@
     </row>
     <row r="11" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A11" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="148">
         <v>45684</v>
@@ -9870,7 +9985,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="48">
-        <f t="shared" si="0"/>
+        <f>F11-E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="49" t="s">
@@ -9908,16 +10023,16 @@
     </row>
     <row r="12" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A12" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="148">
         <v>45691</v>
       </c>
       <c r="D12" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45698</v>
       </c>
       <c r="E12" s="59">
@@ -9927,7 +10042,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="48">
-        <f t="shared" si="0"/>
+        <f>F12-E12</f>
         <v>0</v>
       </c>
       <c r="H12" s="49" t="s">
@@ -9965,7 +10080,3248 @@
     </row>
     <row r="13" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A13" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="148">
+        <v>45698</v>
+      </c>
+      <c r="D13" s="148">
+        <f t="shared" si="0"/>
+        <v>45705</v>
+      </c>
+      <c r="E13" s="47">
+        <v>2</v>
+      </c>
+      <c r="F13" s="47">
+        <v>2</v>
+      </c>
+      <c r="G13" s="48">
+        <f>F13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="77"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+    </row>
+    <row r="14" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A14" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="148">
+        <v>45705</v>
+      </c>
+      <c r="D14" s="148">
+        <f>C14 + 14</f>
+        <v>45719</v>
+      </c>
+      <c r="E14" s="59">
+        <v>8</v>
+      </c>
+      <c r="F14" s="59">
+        <v>8</v>
+      </c>
+      <c r="G14" s="47">
+        <f>F14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+    </row>
+    <row r="15" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A15" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="148">
+        <v>45719</v>
+      </c>
+      <c r="D15" s="148">
+        <f t="shared" si="0"/>
+        <v>45726</v>
+      </c>
+      <c r="E15" s="59">
+        <v>8</v>
+      </c>
+      <c r="F15" s="59">
+        <v>8</v>
+      </c>
+      <c r="G15" s="47">
+        <f>F15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+    </row>
+    <row r="16" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A16" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="148">
+        <v>45719</v>
+      </c>
+      <c r="D16" s="148">
+        <f t="shared" si="0"/>
+        <v>45726</v>
+      </c>
+      <c r="E16" s="59">
+        <v>8</v>
+      </c>
+      <c r="F16" s="59">
+        <v>8</v>
+      </c>
+      <c r="G16" s="47">
+        <f>F16-E16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+    </row>
+    <row r="17" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A17" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="148">
+        <v>45726</v>
+      </c>
+      <c r="D17" s="148">
+        <f t="shared" si="0"/>
+        <v>45733</v>
+      </c>
+      <c r="E17" s="59">
+        <v>8</v>
+      </c>
+      <c r="F17" s="59">
+        <v>8</v>
+      </c>
+      <c r="G17" s="47">
+        <f>F17-E17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+    </row>
+    <row r="18" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A18" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="148">
+        <v>45733</v>
+      </c>
+      <c r="D18" s="148">
+        <f t="shared" si="0"/>
+        <v>45740</v>
+      </c>
+      <c r="E18" s="59">
+        <v>4</v>
+      </c>
+      <c r="F18" s="59">
+        <v>4</v>
+      </c>
+      <c r="G18" s="59">
+        <f>F18-E18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+    </row>
+    <row r="19" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A19" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="148">
+        <v>45740</v>
+      </c>
+      <c r="D19" s="148">
+        <f t="shared" si="0"/>
+        <v>45747</v>
+      </c>
+      <c r="E19" s="47">
+        <v>2</v>
+      </c>
+      <c r="F19" s="47">
+        <v>2</v>
+      </c>
+      <c r="G19" s="47">
+        <f>F19-E19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+    </row>
+    <row r="20" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69">
+        <f>SUM(E6:E19)</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="69">
+        <f>SUM(F6:F19)</f>
+        <v>100</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+    </row>
+    <row r="21" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="162"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+    </row>
+    <row r="22" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A22" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="148">
+        <v>45747</v>
+      </c>
+      <c r="D22" s="148">
+        <f t="shared" ref="D22:D28" si="1">C22 + 7</f>
+        <v>45754</v>
+      </c>
+      <c r="E22" s="47">
+        <v>8</v>
+      </c>
+      <c r="F22" s="47">
+        <v>16</v>
+      </c>
+      <c r="G22" s="47">
+        <f>F22-E22</f>
+        <v>8</v>
+      </c>
+      <c r="H22" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+    </row>
+    <row r="23" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A23" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="148">
+        <v>45747</v>
+      </c>
+      <c r="D23" s="148">
+        <f t="shared" si="1"/>
+        <v>45754</v>
+      </c>
+      <c r="E23" s="59">
+        <v>8</v>
+      </c>
+      <c r="F23" s="59">
+        <v>3</v>
+      </c>
+      <c r="G23" s="47">
+        <f>F23-E23</f>
+        <v>-5</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+    </row>
+    <row r="24" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A24" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="148">
+        <v>45754</v>
+      </c>
+      <c r="D24" s="148">
+        <f t="shared" si="1"/>
+        <v>45761</v>
+      </c>
+      <c r="E24" s="59">
+        <v>8</v>
+      </c>
+      <c r="F24" s="59">
+        <v>3</v>
+      </c>
+      <c r="G24" s="47">
+        <f>F24-E24</f>
+        <v>-5</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+    </row>
+    <row r="25" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A25" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="148">
+        <v>45763</v>
+      </c>
+      <c r="D25" s="148">
+        <f t="shared" si="1"/>
+        <v>45770</v>
+      </c>
+      <c r="E25" s="59">
+        <v>8</v>
+      </c>
+      <c r="F25" s="59">
+        <v>8</v>
+      </c>
+      <c r="G25" s="47">
+        <f>F25-E25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+    </row>
+    <row r="26" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A26" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="59">
+        <v>0</v>
+      </c>
+      <c r="F26" s="59">
+        <v>8</v>
+      </c>
+      <c r="G26" s="59">
+        <f>F26-E26</f>
+        <v>8</v>
+      </c>
+      <c r="H26" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J26" s="144"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+    </row>
+    <row r="27" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A27" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="59">
+        <v>0</v>
+      </c>
+      <c r="F27" s="59">
+        <v>8</v>
+      </c>
+      <c r="G27" s="59">
+        <f>F27-E27</f>
+        <v>8</v>
+      </c>
+      <c r="H27" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" s="144"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+    </row>
+    <row r="28" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A28" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="148">
+        <v>45763</v>
+      </c>
+      <c r="D28" s="148">
+        <f t="shared" si="1"/>
+        <v>45770</v>
+      </c>
+      <c r="E28" s="47">
+        <v>0</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47">
+        <f>F28-E28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" s="81"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+    </row>
+    <row r="29" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69">
+        <f>SUM(E22:E28)</f>
+        <v>32</v>
+      </c>
+      <c r="F29" s="69">
+        <f>SUM(F22:F28)</f>
+        <v>46</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+    </row>
+    <row r="30" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="161" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="162"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="140"/>
+      <c r="Z30" s="140"/>
+      <c r="AA30" s="140"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+    </row>
+    <row r="31" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A31" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="102" t="s">
         <v>294</v>
+      </c>
+      <c r="C31" s="148">
+        <v>45768</v>
+      </c>
+      <c r="D31" s="148">
+        <f t="shared" ref="D31:D32" si="2">C31 + 7</f>
+        <v>45775</v>
+      </c>
+      <c r="E31" s="59">
+        <v>16</v>
+      </c>
+      <c r="F31" s="59">
+        <v>16</v>
+      </c>
+      <c r="G31" s="47">
+        <f>F31-E31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="62"/>
+    </row>
+    <row r="32" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A32" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="148">
+        <v>45768</v>
+      </c>
+      <c r="D32" s="148">
+        <f t="shared" si="2"/>
+        <v>45775</v>
+      </c>
+      <c r="E32" s="59">
+        <v>16</v>
+      </c>
+      <c r="F32" s="59">
+        <v>16</v>
+      </c>
+      <c r="G32" s="47">
+        <f>F32-E32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="62"/>
+    </row>
+    <row r="33" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A33" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" s="148">
+        <v>45775</v>
+      </c>
+      <c r="D33" s="148">
+        <f>C33 + 7</f>
+        <v>45782</v>
+      </c>
+      <c r="E33" s="59">
+        <v>16</v>
+      </c>
+      <c r="F33" s="59">
+        <v>16</v>
+      </c>
+      <c r="G33" s="47">
+        <f>F33-E33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+    </row>
+    <row r="34" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A34" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="148">
+        <v>45776</v>
+      </c>
+      <c r="D34" s="148">
+        <f t="shared" ref="D34:D37" si="3">C34 + 7</f>
+        <v>45783</v>
+      </c>
+      <c r="E34" s="59">
+        <v>16</v>
+      </c>
+      <c r="F34" s="59">
+        <v>16</v>
+      </c>
+      <c r="G34" s="47">
+        <f>F34-E34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+    </row>
+    <row r="35" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A35" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="148">
+        <v>45777</v>
+      </c>
+      <c r="D35" s="148">
+        <f t="shared" si="3"/>
+        <v>45784</v>
+      </c>
+      <c r="E35" s="59">
+        <v>8</v>
+      </c>
+      <c r="F35" s="59">
+        <v>16</v>
+      </c>
+      <c r="G35" s="47">
+        <f>F35-E35</f>
+        <v>8</v>
+      </c>
+      <c r="H35" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+    </row>
+    <row r="36" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A36" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="148">
+        <v>45778</v>
+      </c>
+      <c r="D36" s="148">
+        <f t="shared" si="3"/>
+        <v>45785</v>
+      </c>
+      <c r="E36" s="59">
+        <v>8</v>
+      </c>
+      <c r="F36" s="47">
+        <v>16</v>
+      </c>
+      <c r="G36" s="47">
+        <f>F36-E36</f>
+        <v>8</v>
+      </c>
+      <c r="H36" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" s="55"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+    </row>
+    <row r="37" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A37" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="148">
+        <v>45779</v>
+      </c>
+      <c r="D37" s="148">
+        <f t="shared" si="3"/>
+        <v>45786</v>
+      </c>
+      <c r="E37" s="47">
+        <v>0</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47">
+        <f>F37-E37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="55"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+    </row>
+    <row r="38" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="78">
+        <f>SUM(E31:E37)</f>
+        <v>80</v>
+      </c>
+      <c r="F38" s="78">
+        <f>SUM(F31:F37)</f>
+        <v>96</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="88"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="88"/>
+      <c r="AD38" s="88"/>
+      <c r="AE38" s="88"/>
+      <c r="AF38" s="88"/>
+      <c r="AG38" s="88"/>
+      <c r="AH38" s="88"/>
+      <c r="AI38" s="88"/>
+    </row>
+    <row r="39" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="162"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="140"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+    </row>
+    <row r="40" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A40" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="148">
+        <v>45796</v>
+      </c>
+      <c r="D40" s="148">
+        <f t="shared" ref="D40:D43" si="4">C40 + 7</f>
+        <v>45803</v>
+      </c>
+      <c r="E40" s="47">
+        <v>8</v>
+      </c>
+      <c r="F40" s="47">
+        <v>0</v>
+      </c>
+      <c r="G40" s="47">
+        <f>F40-E40</f>
+        <v>-8</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" s="55"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+    </row>
+    <row r="41" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A41" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="148">
+        <v>45803</v>
+      </c>
+      <c r="D41" s="148">
+        <f t="shared" si="4"/>
+        <v>45810</v>
+      </c>
+      <c r="E41" s="59">
+        <v>8</v>
+      </c>
+      <c r="F41" s="59">
+        <v>36</v>
+      </c>
+      <c r="G41" s="47">
+        <f>F41-E41</f>
+        <v>28</v>
+      </c>
+      <c r="H41" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+    </row>
+    <row r="42" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A42" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" s="148">
+        <v>45810</v>
+      </c>
+      <c r="D42" s="148">
+        <f>C42 + 7</f>
+        <v>45817</v>
+      </c>
+      <c r="E42" s="47">
+        <v>8</v>
+      </c>
+      <c r="F42" s="47">
+        <v>8</v>
+      </c>
+      <c r="G42" s="47">
+        <f>F42-E42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" s="81"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="75"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+    </row>
+    <row r="43" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A43" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="148">
+        <v>45810</v>
+      </c>
+      <c r="D43" s="148">
+        <f t="shared" si="4"/>
+        <v>45817</v>
+      </c>
+      <c r="E43" s="47">
+        <v>8</v>
+      </c>
+      <c r="F43" s="47">
+        <v>8</v>
+      </c>
+      <c r="G43" s="47">
+        <f>F43-E43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" s="81"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="77"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+    </row>
+    <row r="44" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69">
+        <f>SUM(E40:E43)</f>
+        <v>32</v>
+      </c>
+      <c r="F44" s="69">
+        <f>SUM(F40:F43)</f>
+        <v>52</v>
+      </c>
+      <c r="G44" s="78"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="71"/>
+    </row>
+    <row r="45" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A45" s="161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="162"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
+    </row>
+    <row r="46" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A46" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="46">
+        <v>40466</v>
+      </c>
+      <c r="E46" s="47">
+        <v>3</v>
+      </c>
+      <c r="F46" s="47">
+        <v>3</v>
+      </c>
+      <c r="G46" s="47">
+        <f>F46-E46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" s="55"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="91"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="75"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+    </row>
+    <row r="47" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A47" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="46">
+        <v>40466</v>
+      </c>
+      <c r="E47" s="47">
+        <v>8</v>
+      </c>
+      <c r="F47" s="47">
+        <v>8</v>
+      </c>
+      <c r="G47" s="47">
+        <f>F47-E47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J47" s="55"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+    </row>
+    <row r="48" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A48" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="46">
+        <v>40471</v>
+      </c>
+      <c r="E48" s="47">
+        <v>4</v>
+      </c>
+      <c r="F48" s="47">
+        <v>4</v>
+      </c>
+      <c r="G48" s="47">
+        <f>F48-E48</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J48" s="55"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="77"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+    </row>
+    <row r="49" spans="1:36" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+    </row>
+    <row r="50" spans="1:36" s="43" customFormat="1" ht="3" customHeight="1">
+      <c r="A50" s="101"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="103"/>
+      <c r="AA50" s="103"/>
+      <c r="AB50" s="103"/>
+      <c r="AC50" s="103"/>
+      <c r="AD50" s="103"/>
+      <c r="AE50" s="103"/>
+      <c r="AF50" s="103"/>
+      <c r="AG50" s="103"/>
+      <c r="AH50" s="103"/>
+      <c r="AI50" s="103"/>
+    </row>
+    <row r="51" spans="1:36">
+      <c r="B51" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="105">
+        <f>SUM(E5:E49)</f>
+        <v>503</v>
+      </c>
+      <c r="F51" s="105">
+        <f>SUM(F5:F49)</f>
+        <v>603</v>
+      </c>
+      <c r="G51" s="105">
+        <f>ABS(SUM(G5:G49))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" ht="16" thickBot="1">
+      <c r="A53" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+    </row>
+    <row r="54" spans="1:36" ht="16" thickBot="1">
+      <c r="A54" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="108"/>
+      <c r="C54" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="166"/>
+      <c r="E54" s="167" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="187"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="107"/>
+      <c r="AJ54" s="106"/>
+    </row>
+    <row r="55" spans="1:36" ht="15">
+      <c r="A55" s="109" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" s="109"/>
+      <c r="C55" s="153" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="154"/>
+      <c r="E55" s="185" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" s="186"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
+      <c r="AJ55" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:AI2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AJ55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="4.5" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="4.5" style="107" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.5" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.33203125" style="106" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="27" width="2.6640625" style="106" customWidth="1"/>
+    <col min="28" max="28" width="2.5" style="106" customWidth="1"/>
+    <col min="29" max="35" width="2.6640625" style="106" customWidth="1"/>
+    <col min="36" max="230" width="9.33203125" style="23" customWidth="1"/>
+    <col min="231" max="231" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="233" max="234" width="9.33203125" style="23" customWidth="1"/>
+    <col min="235" max="237" width="4.5" style="23" customWidth="1"/>
+    <col min="238" max="238" width="8.5" style="23" customWidth="1"/>
+    <col min="239" max="239" width="10.33203125" style="23" customWidth="1"/>
+    <col min="240" max="291" width="2.6640625" style="23" customWidth="1"/>
+    <col min="292" max="486" width="9.33203125" style="23" customWidth="1"/>
+    <col min="487" max="487" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="489" max="490" width="9.33203125" style="23" customWidth="1"/>
+    <col min="491" max="493" width="4.5" style="23" customWidth="1"/>
+    <col min="494" max="494" width="8.5" style="23" customWidth="1"/>
+    <col min="495" max="495" width="10.33203125" style="23" customWidth="1"/>
+    <col min="496" max="547" width="2.6640625" style="23" customWidth="1"/>
+    <col min="548" max="742" width="9.33203125" style="23" customWidth="1"/>
+    <col min="743" max="743" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="745" max="746" width="9.33203125" style="23" customWidth="1"/>
+    <col min="747" max="749" width="4.5" style="23" customWidth="1"/>
+    <col min="750" max="750" width="8.5" style="23" customWidth="1"/>
+    <col min="751" max="751" width="10.33203125" style="23" customWidth="1"/>
+    <col min="752" max="803" width="2.6640625" style="23" customWidth="1"/>
+    <col min="804" max="998" width="9.33203125" style="23" customWidth="1"/>
+    <col min="999" max="999" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="1000" max="1000" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1001" max="1002" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1003" max="1005" width="4.5" style="23" customWidth="1"/>
+    <col min="1006" max="1006" width="8.5" style="23" customWidth="1"/>
+    <col min="1007" max="1007" width="10.33203125" style="23" customWidth="1"/>
+    <col min="1008" max="1059" width="2.6640625" style="23" customWidth="1"/>
+    <col min="1060" max="1254" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1255" max="1255" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="1256" max="1256" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1257" max="1258" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1259" max="1261" width="4.5" style="23" customWidth="1"/>
+    <col min="1262" max="1262" width="8.5" style="23" customWidth="1"/>
+    <col min="1263" max="1263" width="10.33203125" style="23" customWidth="1"/>
+    <col min="1264" max="1315" width="2.6640625" style="23" customWidth="1"/>
+    <col min="1316" max="1510" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1511" max="1511" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="1512" max="1512" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1513" max="1514" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1515" max="1517" width="4.5" style="23" customWidth="1"/>
+    <col min="1518" max="1518" width="8.5" style="23" customWidth="1"/>
+    <col min="1519" max="1519" width="10.33203125" style="23" customWidth="1"/>
+    <col min="1520" max="1571" width="2.6640625" style="23" customWidth="1"/>
+    <col min="1572" max="1766" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1767" max="1767" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="1768" max="1768" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1769" max="1770" width="9.33203125" style="23" customWidth="1"/>
+    <col min="1771" max="1773" width="4.5" style="23" customWidth="1"/>
+    <col min="1774" max="1774" width="8.5" style="23" customWidth="1"/>
+    <col min="1775" max="1775" width="10.33203125" style="23" customWidth="1"/>
+    <col min="1776" max="1827" width="2.6640625" style="23" customWidth="1"/>
+    <col min="1828" max="2022" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2023" max="2023" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="2024" max="2024" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2025" max="2026" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2027" max="2029" width="4.5" style="23" customWidth="1"/>
+    <col min="2030" max="2030" width="8.5" style="23" customWidth="1"/>
+    <col min="2031" max="2031" width="10.33203125" style="23" customWidth="1"/>
+    <col min="2032" max="2083" width="2.6640625" style="23" customWidth="1"/>
+    <col min="2084" max="2278" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2279" max="2279" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="2280" max="2280" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2281" max="2282" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2283" max="2285" width="4.5" style="23" customWidth="1"/>
+    <col min="2286" max="2286" width="8.5" style="23" customWidth="1"/>
+    <col min="2287" max="2287" width="10.33203125" style="23" customWidth="1"/>
+    <col min="2288" max="2339" width="2.6640625" style="23" customWidth="1"/>
+    <col min="2340" max="2534" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2535" max="2535" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="2536" max="2536" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2537" max="2538" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2539" max="2541" width="4.5" style="23" customWidth="1"/>
+    <col min="2542" max="2542" width="8.5" style="23" customWidth="1"/>
+    <col min="2543" max="2543" width="10.33203125" style="23" customWidth="1"/>
+    <col min="2544" max="2595" width="2.6640625" style="23" customWidth="1"/>
+    <col min="2596" max="2790" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2791" max="2791" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="2792" max="2792" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2793" max="2794" width="9.33203125" style="23" customWidth="1"/>
+    <col min="2795" max="2797" width="4.5" style="23" customWidth="1"/>
+    <col min="2798" max="2798" width="8.5" style="23" customWidth="1"/>
+    <col min="2799" max="2799" width="10.33203125" style="23" customWidth="1"/>
+    <col min="2800" max="2851" width="2.6640625" style="23" customWidth="1"/>
+    <col min="2852" max="3046" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3047" max="3047" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="3048" max="3048" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3049" max="3050" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3051" max="3053" width="4.5" style="23" customWidth="1"/>
+    <col min="3054" max="3054" width="8.5" style="23" customWidth="1"/>
+    <col min="3055" max="3055" width="10.33203125" style="23" customWidth="1"/>
+    <col min="3056" max="3107" width="2.6640625" style="23" customWidth="1"/>
+    <col min="3108" max="3302" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3303" max="3303" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="3304" max="3304" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3305" max="3306" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3307" max="3309" width="4.5" style="23" customWidth="1"/>
+    <col min="3310" max="3310" width="8.5" style="23" customWidth="1"/>
+    <col min="3311" max="3311" width="10.33203125" style="23" customWidth="1"/>
+    <col min="3312" max="3363" width="2.6640625" style="23" customWidth="1"/>
+    <col min="3364" max="3558" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3559" max="3559" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="3560" max="3560" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3561" max="3562" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3563" max="3565" width="4.5" style="23" customWidth="1"/>
+    <col min="3566" max="3566" width="8.5" style="23" customWidth="1"/>
+    <col min="3567" max="3567" width="10.33203125" style="23" customWidth="1"/>
+    <col min="3568" max="3619" width="2.6640625" style="23" customWidth="1"/>
+    <col min="3620" max="3814" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3815" max="3815" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="3816" max="3816" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3817" max="3818" width="9.33203125" style="23" customWidth="1"/>
+    <col min="3819" max="3821" width="4.5" style="23" customWidth="1"/>
+    <col min="3822" max="3822" width="8.5" style="23" customWidth="1"/>
+    <col min="3823" max="3823" width="10.33203125" style="23" customWidth="1"/>
+    <col min="3824" max="3875" width="2.6640625" style="23" customWidth="1"/>
+    <col min="3876" max="4070" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4071" max="4071" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="4072" max="4072" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4073" max="4074" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4075" max="4077" width="4.5" style="23" customWidth="1"/>
+    <col min="4078" max="4078" width="8.5" style="23" customWidth="1"/>
+    <col min="4079" max="4079" width="10.33203125" style="23" customWidth="1"/>
+    <col min="4080" max="4131" width="2.6640625" style="23" customWidth="1"/>
+    <col min="4132" max="4326" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4327" max="4327" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="4328" max="4328" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4329" max="4330" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4331" max="4333" width="4.5" style="23" customWidth="1"/>
+    <col min="4334" max="4334" width="8.5" style="23" customWidth="1"/>
+    <col min="4335" max="4335" width="10.33203125" style="23" customWidth="1"/>
+    <col min="4336" max="4387" width="2.6640625" style="23" customWidth="1"/>
+    <col min="4388" max="4582" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4583" max="4583" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="4584" max="4584" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4585" max="4586" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4587" max="4589" width="4.5" style="23" customWidth="1"/>
+    <col min="4590" max="4590" width="8.5" style="23" customWidth="1"/>
+    <col min="4591" max="4591" width="10.33203125" style="23" customWidth="1"/>
+    <col min="4592" max="4643" width="2.6640625" style="23" customWidth="1"/>
+    <col min="4644" max="4838" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4839" max="4839" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="4840" max="4840" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4841" max="4842" width="9.33203125" style="23" customWidth="1"/>
+    <col min="4843" max="4845" width="4.5" style="23" customWidth="1"/>
+    <col min="4846" max="4846" width="8.5" style="23" customWidth="1"/>
+    <col min="4847" max="4847" width="10.33203125" style="23" customWidth="1"/>
+    <col min="4848" max="4899" width="2.6640625" style="23" customWidth="1"/>
+    <col min="4900" max="5094" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5095" max="5095" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="5096" max="5096" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5097" max="5098" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5099" max="5101" width="4.5" style="23" customWidth="1"/>
+    <col min="5102" max="5102" width="8.5" style="23" customWidth="1"/>
+    <col min="5103" max="5103" width="10.33203125" style="23" customWidth="1"/>
+    <col min="5104" max="5155" width="2.6640625" style="23" customWidth="1"/>
+    <col min="5156" max="5350" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5351" max="5351" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="5352" max="5352" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5353" max="5354" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5355" max="5357" width="4.5" style="23" customWidth="1"/>
+    <col min="5358" max="5358" width="8.5" style="23" customWidth="1"/>
+    <col min="5359" max="5359" width="10.33203125" style="23" customWidth="1"/>
+    <col min="5360" max="5411" width="2.6640625" style="23" customWidth="1"/>
+    <col min="5412" max="5606" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5607" max="5607" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="5608" max="5608" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5609" max="5610" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5611" max="5613" width="4.5" style="23" customWidth="1"/>
+    <col min="5614" max="5614" width="8.5" style="23" customWidth="1"/>
+    <col min="5615" max="5615" width="10.33203125" style="23" customWidth="1"/>
+    <col min="5616" max="5667" width="2.6640625" style="23" customWidth="1"/>
+    <col min="5668" max="5862" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5863" max="5863" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="5864" max="5864" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5865" max="5866" width="9.33203125" style="23" customWidth="1"/>
+    <col min="5867" max="5869" width="4.5" style="23" customWidth="1"/>
+    <col min="5870" max="5870" width="8.5" style="23" customWidth="1"/>
+    <col min="5871" max="5871" width="10.33203125" style="23" customWidth="1"/>
+    <col min="5872" max="5923" width="2.6640625" style="23" customWidth="1"/>
+    <col min="5924" max="6118" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6119" max="6119" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="6120" max="6120" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6121" max="6122" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6123" max="6125" width="4.5" style="23" customWidth="1"/>
+    <col min="6126" max="6126" width="8.5" style="23" customWidth="1"/>
+    <col min="6127" max="6127" width="10.33203125" style="23" customWidth="1"/>
+    <col min="6128" max="6179" width="2.6640625" style="23" customWidth="1"/>
+    <col min="6180" max="6374" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6375" max="6375" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="6376" max="6376" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6377" max="6378" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6379" max="6381" width="4.5" style="23" customWidth="1"/>
+    <col min="6382" max="6382" width="8.5" style="23" customWidth="1"/>
+    <col min="6383" max="6383" width="10.33203125" style="23" customWidth="1"/>
+    <col min="6384" max="6435" width="2.6640625" style="23" customWidth="1"/>
+    <col min="6436" max="6630" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6631" max="6631" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="6632" max="6632" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6633" max="6634" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6635" max="6637" width="4.5" style="23" customWidth="1"/>
+    <col min="6638" max="6638" width="8.5" style="23" customWidth="1"/>
+    <col min="6639" max="6639" width="10.33203125" style="23" customWidth="1"/>
+    <col min="6640" max="6691" width="2.6640625" style="23" customWidth="1"/>
+    <col min="6692" max="6886" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6887" max="6887" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="6888" max="6888" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6889" max="6890" width="9.33203125" style="23" customWidth="1"/>
+    <col min="6891" max="6893" width="4.5" style="23" customWidth="1"/>
+    <col min="6894" max="6894" width="8.5" style="23" customWidth="1"/>
+    <col min="6895" max="6895" width="10.33203125" style="23" customWidth="1"/>
+    <col min="6896" max="6947" width="2.6640625" style="23" customWidth="1"/>
+    <col min="6948" max="7142" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7143" max="7143" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="7144" max="7144" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7145" max="7146" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7147" max="7149" width="4.5" style="23" customWidth="1"/>
+    <col min="7150" max="7150" width="8.5" style="23" customWidth="1"/>
+    <col min="7151" max="7151" width="10.33203125" style="23" customWidth="1"/>
+    <col min="7152" max="7203" width="2.6640625" style="23" customWidth="1"/>
+    <col min="7204" max="7398" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7399" max="7399" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="7400" max="7400" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7401" max="7402" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7403" max="7405" width="4.5" style="23" customWidth="1"/>
+    <col min="7406" max="7406" width="8.5" style="23" customWidth="1"/>
+    <col min="7407" max="7407" width="10.33203125" style="23" customWidth="1"/>
+    <col min="7408" max="7459" width="2.6640625" style="23" customWidth="1"/>
+    <col min="7460" max="7654" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7655" max="7655" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="7656" max="7656" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7657" max="7658" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7659" max="7661" width="4.5" style="23" customWidth="1"/>
+    <col min="7662" max="7662" width="8.5" style="23" customWidth="1"/>
+    <col min="7663" max="7663" width="10.33203125" style="23" customWidth="1"/>
+    <col min="7664" max="7715" width="2.6640625" style="23" customWidth="1"/>
+    <col min="7716" max="7910" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7911" max="7911" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="7912" max="7912" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7913" max="7914" width="9.33203125" style="23" customWidth="1"/>
+    <col min="7915" max="7917" width="4.5" style="23" customWidth="1"/>
+    <col min="7918" max="7918" width="8.5" style="23" customWidth="1"/>
+    <col min="7919" max="7919" width="10.33203125" style="23" customWidth="1"/>
+    <col min="7920" max="7971" width="2.6640625" style="23" customWidth="1"/>
+    <col min="7972" max="8166" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8167" max="8167" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="8168" max="8168" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8169" max="8170" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8171" max="8173" width="4.5" style="23" customWidth="1"/>
+    <col min="8174" max="8174" width="8.5" style="23" customWidth="1"/>
+    <col min="8175" max="8175" width="10.33203125" style="23" customWidth="1"/>
+    <col min="8176" max="8227" width="2.6640625" style="23" customWidth="1"/>
+    <col min="8228" max="8422" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8423" max="8423" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="8424" max="8424" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8425" max="8426" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8427" max="8429" width="4.5" style="23" customWidth="1"/>
+    <col min="8430" max="8430" width="8.5" style="23" customWidth="1"/>
+    <col min="8431" max="8431" width="10.33203125" style="23" customWidth="1"/>
+    <col min="8432" max="8483" width="2.6640625" style="23" customWidth="1"/>
+    <col min="8484" max="8678" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8679" max="8679" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="8680" max="8680" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8681" max="8682" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8683" max="8685" width="4.5" style="23" customWidth="1"/>
+    <col min="8686" max="8686" width="8.5" style="23" customWidth="1"/>
+    <col min="8687" max="8687" width="10.33203125" style="23" customWidth="1"/>
+    <col min="8688" max="8739" width="2.6640625" style="23" customWidth="1"/>
+    <col min="8740" max="8934" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8935" max="8935" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="8936" max="8936" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8937" max="8938" width="9.33203125" style="23" customWidth="1"/>
+    <col min="8939" max="8941" width="4.5" style="23" customWidth="1"/>
+    <col min="8942" max="8942" width="8.5" style="23" customWidth="1"/>
+    <col min="8943" max="8943" width="10.33203125" style="23" customWidth="1"/>
+    <col min="8944" max="8995" width="2.6640625" style="23" customWidth="1"/>
+    <col min="8996" max="9190" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9191" max="9191" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="9192" max="9192" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9193" max="9194" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9195" max="9197" width="4.5" style="23" customWidth="1"/>
+    <col min="9198" max="9198" width="8.5" style="23" customWidth="1"/>
+    <col min="9199" max="9199" width="10.33203125" style="23" customWidth="1"/>
+    <col min="9200" max="9251" width="2.6640625" style="23" customWidth="1"/>
+    <col min="9252" max="9446" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9447" max="9447" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="9448" max="9448" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9449" max="9450" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9451" max="9453" width="4.5" style="23" customWidth="1"/>
+    <col min="9454" max="9454" width="8.5" style="23" customWidth="1"/>
+    <col min="9455" max="9455" width="10.33203125" style="23" customWidth="1"/>
+    <col min="9456" max="9507" width="2.6640625" style="23" customWidth="1"/>
+    <col min="9508" max="9702" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9703" max="9703" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="9704" max="9704" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9705" max="9706" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9707" max="9709" width="4.5" style="23" customWidth="1"/>
+    <col min="9710" max="9710" width="8.5" style="23" customWidth="1"/>
+    <col min="9711" max="9711" width="10.33203125" style="23" customWidth="1"/>
+    <col min="9712" max="9763" width="2.6640625" style="23" customWidth="1"/>
+    <col min="9764" max="9958" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9959" max="9959" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="9960" max="9960" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9961" max="9962" width="9.33203125" style="23" customWidth="1"/>
+    <col min="9963" max="9965" width="4.5" style="23" customWidth="1"/>
+    <col min="9966" max="9966" width="8.5" style="23" customWidth="1"/>
+    <col min="9967" max="9967" width="10.33203125" style="23" customWidth="1"/>
+    <col min="9968" max="10019" width="2.6640625" style="23" customWidth="1"/>
+    <col min="10020" max="10214" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10215" max="10215" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="10216" max="10216" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10217" max="10218" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10219" max="10221" width="4.5" style="23" customWidth="1"/>
+    <col min="10222" max="10222" width="8.5" style="23" customWidth="1"/>
+    <col min="10223" max="10223" width="10.33203125" style="23" customWidth="1"/>
+    <col min="10224" max="10275" width="2.6640625" style="23" customWidth="1"/>
+    <col min="10276" max="10470" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10471" max="10471" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="10472" max="10472" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10473" max="10474" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10475" max="10477" width="4.5" style="23" customWidth="1"/>
+    <col min="10478" max="10478" width="8.5" style="23" customWidth="1"/>
+    <col min="10479" max="10479" width="10.33203125" style="23" customWidth="1"/>
+    <col min="10480" max="10531" width="2.6640625" style="23" customWidth="1"/>
+    <col min="10532" max="10726" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10727" max="10727" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="10728" max="10728" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10729" max="10730" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10731" max="10733" width="4.5" style="23" customWidth="1"/>
+    <col min="10734" max="10734" width="8.5" style="23" customWidth="1"/>
+    <col min="10735" max="10735" width="10.33203125" style="23" customWidth="1"/>
+    <col min="10736" max="10787" width="2.6640625" style="23" customWidth="1"/>
+    <col min="10788" max="10982" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10983" max="10983" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="10984" max="10984" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10985" max="10986" width="9.33203125" style="23" customWidth="1"/>
+    <col min="10987" max="10989" width="4.5" style="23" customWidth="1"/>
+    <col min="10990" max="10990" width="8.5" style="23" customWidth="1"/>
+    <col min="10991" max="10991" width="10.33203125" style="23" customWidth="1"/>
+    <col min="10992" max="11043" width="2.6640625" style="23" customWidth="1"/>
+    <col min="11044" max="11238" width="9.33203125" style="23" customWidth="1"/>
+    <col min="11239" max="11239" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="11240" max="11240" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11241" max="11242" width="9.33203125" style="23" customWidth="1"/>
+    <col min="11243" max="11245" width="4.5" style="23" customWidth="1"/>
+    <col min="11246" max="11246" width="8.5" style="23" customWidth="1"/>
+    <col min="11247" max="11247" width="10.33203125" style="23" customWidth="1"/>
+    <col min="11248" max="11299" width="2.6640625" style="23" customWidth="1"/>
+    <col min="11300" max="11494" width="9.33203125" style="23" customWidth="1"/>
+    <col min="11495" max="11495" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="11496" max="11496" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11497" max="11498" width="9.33203125" style="23" customWidth="1"/>
+    <col min="11499" max="11501" width="4.5" style="23" customWidth="1"/>
+    <col min="11502" max="11502" width="8.5" style="23" customWidth="1"/>
+    <col min="11503" max="11503" width="10.33203125" style="23" customWidth="1"/>
+    <col min="11504" max="11555" width="2.6640625" style="23" customWidth="1"/>
+    <col min="11556" max="11750" width="9.33203125" style="23" customWidth="1"/>
+    <col min="11751" max="11751" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="11752" max="11752" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11753" max="11754" width="9.33203125" style="23" customWidth="1"/>
+    <col min="11755" max="11757" width="4.5" style="23" customWidth="1"/>
+    <col min="11758" max="11758" width="8.5" style="23" customWidth="1"/>
+    <col min="11759" max="11759" width="10.33203125" style="23" customWidth="1"/>
+    <col min="11760" max="11811" width="2.6640625" style="23" customWidth="1"/>
+    <col min="11812" max="12006" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12007" max="12007" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="12008" max="12008" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12009" max="12010" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12011" max="12013" width="4.5" style="23" customWidth="1"/>
+    <col min="12014" max="12014" width="8.5" style="23" customWidth="1"/>
+    <col min="12015" max="12015" width="10.33203125" style="23" customWidth="1"/>
+    <col min="12016" max="12067" width="2.6640625" style="23" customWidth="1"/>
+    <col min="12068" max="12262" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12263" max="12263" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="12264" max="12264" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12265" max="12266" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12267" max="12269" width="4.5" style="23" customWidth="1"/>
+    <col min="12270" max="12270" width="8.5" style="23" customWidth="1"/>
+    <col min="12271" max="12271" width="10.33203125" style="23" customWidth="1"/>
+    <col min="12272" max="12323" width="2.6640625" style="23" customWidth="1"/>
+    <col min="12324" max="12518" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12519" max="12519" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="12520" max="12520" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12521" max="12522" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12523" max="12525" width="4.5" style="23" customWidth="1"/>
+    <col min="12526" max="12526" width="8.5" style="23" customWidth="1"/>
+    <col min="12527" max="12527" width="10.33203125" style="23" customWidth="1"/>
+    <col min="12528" max="12579" width="2.6640625" style="23" customWidth="1"/>
+    <col min="12580" max="12774" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12775" max="12775" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="12776" max="12776" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12777" max="12778" width="9.33203125" style="23" customWidth="1"/>
+    <col min="12779" max="12781" width="4.5" style="23" customWidth="1"/>
+    <col min="12782" max="12782" width="8.5" style="23" customWidth="1"/>
+    <col min="12783" max="12783" width="10.33203125" style="23" customWidth="1"/>
+    <col min="12784" max="12835" width="2.6640625" style="23" customWidth="1"/>
+    <col min="12836" max="13030" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13031" max="13031" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="13032" max="13032" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13033" max="13034" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13035" max="13037" width="4.5" style="23" customWidth="1"/>
+    <col min="13038" max="13038" width="8.5" style="23" customWidth="1"/>
+    <col min="13039" max="13039" width="10.33203125" style="23" customWidth="1"/>
+    <col min="13040" max="13091" width="2.6640625" style="23" customWidth="1"/>
+    <col min="13092" max="13286" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13287" max="13287" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="13288" max="13288" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13289" max="13290" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13291" max="13293" width="4.5" style="23" customWidth="1"/>
+    <col min="13294" max="13294" width="8.5" style="23" customWidth="1"/>
+    <col min="13295" max="13295" width="10.33203125" style="23" customWidth="1"/>
+    <col min="13296" max="13347" width="2.6640625" style="23" customWidth="1"/>
+    <col min="13348" max="13542" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13543" max="13543" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="13544" max="13544" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13545" max="13546" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13547" max="13549" width="4.5" style="23" customWidth="1"/>
+    <col min="13550" max="13550" width="8.5" style="23" customWidth="1"/>
+    <col min="13551" max="13551" width="10.33203125" style="23" customWidth="1"/>
+    <col min="13552" max="13603" width="2.6640625" style="23" customWidth="1"/>
+    <col min="13604" max="13798" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13799" max="13799" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="13800" max="13800" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13801" max="13802" width="9.33203125" style="23" customWidth="1"/>
+    <col min="13803" max="13805" width="4.5" style="23" customWidth="1"/>
+    <col min="13806" max="13806" width="8.5" style="23" customWidth="1"/>
+    <col min="13807" max="13807" width="10.33203125" style="23" customWidth="1"/>
+    <col min="13808" max="13859" width="2.6640625" style="23" customWidth="1"/>
+    <col min="13860" max="14054" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14055" max="14055" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="14056" max="14056" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14057" max="14058" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14059" max="14061" width="4.5" style="23" customWidth="1"/>
+    <col min="14062" max="14062" width="8.5" style="23" customWidth="1"/>
+    <col min="14063" max="14063" width="10.33203125" style="23" customWidth="1"/>
+    <col min="14064" max="14115" width="2.6640625" style="23" customWidth="1"/>
+    <col min="14116" max="14310" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14311" max="14311" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="14312" max="14312" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14313" max="14314" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14315" max="14317" width="4.5" style="23" customWidth="1"/>
+    <col min="14318" max="14318" width="8.5" style="23" customWidth="1"/>
+    <col min="14319" max="14319" width="10.33203125" style="23" customWidth="1"/>
+    <col min="14320" max="14371" width="2.6640625" style="23" customWidth="1"/>
+    <col min="14372" max="14566" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14567" max="14567" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="14568" max="14568" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14569" max="14570" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14571" max="14573" width="4.5" style="23" customWidth="1"/>
+    <col min="14574" max="14574" width="8.5" style="23" customWidth="1"/>
+    <col min="14575" max="14575" width="10.33203125" style="23" customWidth="1"/>
+    <col min="14576" max="14627" width="2.6640625" style="23" customWidth="1"/>
+    <col min="14628" max="14822" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14823" max="14823" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="14824" max="14824" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14825" max="14826" width="9.33203125" style="23" customWidth="1"/>
+    <col min="14827" max="14829" width="4.5" style="23" customWidth="1"/>
+    <col min="14830" max="14830" width="8.5" style="23" customWidth="1"/>
+    <col min="14831" max="14831" width="10.33203125" style="23" customWidth="1"/>
+    <col min="14832" max="14883" width="2.6640625" style="23" customWidth="1"/>
+    <col min="14884" max="15078" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15079" max="15079" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="15080" max="15080" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15081" max="15082" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15083" max="15085" width="4.5" style="23" customWidth="1"/>
+    <col min="15086" max="15086" width="8.5" style="23" customWidth="1"/>
+    <col min="15087" max="15087" width="10.33203125" style="23" customWidth="1"/>
+    <col min="15088" max="15139" width="2.6640625" style="23" customWidth="1"/>
+    <col min="15140" max="15334" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15335" max="15335" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="15336" max="15336" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15337" max="15338" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15339" max="15341" width="4.5" style="23" customWidth="1"/>
+    <col min="15342" max="15342" width="8.5" style="23" customWidth="1"/>
+    <col min="15343" max="15343" width="10.33203125" style="23" customWidth="1"/>
+    <col min="15344" max="15395" width="2.6640625" style="23" customWidth="1"/>
+    <col min="15396" max="15590" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15591" max="15591" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="15592" max="15592" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15593" max="15594" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15595" max="15597" width="4.5" style="23" customWidth="1"/>
+    <col min="15598" max="15598" width="8.5" style="23" customWidth="1"/>
+    <col min="15599" max="15599" width="10.33203125" style="23" customWidth="1"/>
+    <col min="15600" max="15651" width="2.6640625" style="23" customWidth="1"/>
+    <col min="15652" max="15846" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15847" max="15847" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="15848" max="15848" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15849" max="15850" width="9.33203125" style="23" customWidth="1"/>
+    <col min="15851" max="15853" width="4.5" style="23" customWidth="1"/>
+    <col min="15854" max="15854" width="8.5" style="23" customWidth="1"/>
+    <col min="15855" max="15855" width="10.33203125" style="23" customWidth="1"/>
+    <col min="15856" max="15907" width="2.6640625" style="23" customWidth="1"/>
+    <col min="15908" max="16102" width="9.33203125" style="23" customWidth="1"/>
+    <col min="16103" max="16103" width="4" style="23" bestFit="1" customWidth="1"/>
+    <col min="16104" max="16104" width="35.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16105" max="16106" width="9.33203125" style="23" customWidth="1"/>
+    <col min="16107" max="16109" width="4.5" style="23" customWidth="1"/>
+    <col min="16110" max="16110" width="8.5" style="23" customWidth="1"/>
+    <col min="16111" max="16111" width="10.33203125" style="23" customWidth="1"/>
+    <col min="16112" max="16163" width="2.6640625" style="23" customWidth="1"/>
+    <col min="16164" max="16384" width="9.33203125" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="24" thickBot="1">
+      <c r="A1" s="136" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="18" customHeight="1">
+      <c r="A2" s="173" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="174"/>
+      <c r="C2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="175" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="176" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+    </row>
+    <row r="3" spans="1:35" ht="18" customHeight="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="181"/>
+      <c r="X3" s="181"/>
+      <c r="Y3" s="181"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="181"/>
+      <c r="AC3" s="181"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="181"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="182"/>
+    </row>
+    <row r="4" spans="1:35" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI4" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="162"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+    </row>
+    <row r="6" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A6" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="148">
+        <v>45663</v>
+      </c>
+      <c r="D6" s="148">
+        <f>C6 + 7</f>
+        <v>45670</v>
+      </c>
+      <c r="E6" s="47">
+        <v>8</v>
+      </c>
+      <c r="F6" s="47">
+        <v>8</v>
+      </c>
+      <c r="G6" s="48">
+        <f t="shared" ref="G6:G13" si="0">F6-E6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+    </row>
+    <row r="7" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A7" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="148">
+        <v>45663</v>
+      </c>
+      <c r="D7" s="148">
+        <f t="shared" ref="D7:D19" si="1">C7 + 7</f>
+        <v>45670</v>
+      </c>
+      <c r="E7" s="47">
+        <v>8</v>
+      </c>
+      <c r="F7" s="47">
+        <v>8</v>
+      </c>
+      <c r="G7" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+    </row>
+    <row r="8" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A8" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="148">
+        <v>45670</v>
+      </c>
+      <c r="D8" s="148">
+        <f t="shared" si="1"/>
+        <v>45677</v>
+      </c>
+      <c r="E8" s="47">
+        <v>16</v>
+      </c>
+      <c r="F8" s="47">
+        <v>16</v>
+      </c>
+      <c r="G8" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+    </row>
+    <row r="9" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A9" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="147" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="148">
+        <v>45670</v>
+      </c>
+      <c r="D9" s="148">
+        <f t="shared" si="1"/>
+        <v>45677</v>
+      </c>
+      <c r="E9" s="59">
+        <v>4</v>
+      </c>
+      <c r="F9" s="59">
+        <v>4</v>
+      </c>
+      <c r="G9" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+    </row>
+    <row r="10" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A10" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="148">
+        <v>45670</v>
+      </c>
+      <c r="D10" s="148">
+        <f t="shared" si="1"/>
+        <v>45677</v>
+      </c>
+      <c r="E10" s="59">
+        <v>4</v>
+      </c>
+      <c r="F10" s="59">
+        <v>4</v>
+      </c>
+      <c r="G10" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="144"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+    </row>
+    <row r="11" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A11" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="148">
+        <v>45684</v>
+      </c>
+      <c r="D11" s="148">
+        <f>C11 + 21</f>
+        <v>45705</v>
+      </c>
+      <c r="E11" s="59">
+        <v>16</v>
+      </c>
+      <c r="F11" s="59">
+        <v>16</v>
+      </c>
+      <c r="G11" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="144"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+    </row>
+    <row r="12" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A12" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="148">
+        <v>45691</v>
+      </c>
+      <c r="D12" s="148">
+        <f t="shared" si="1"/>
+        <v>45698</v>
+      </c>
+      <c r="E12" s="59">
+        <v>4</v>
+      </c>
+      <c r="F12" s="59">
+        <v>4</v>
+      </c>
+      <c r="G12" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="144"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+    </row>
+    <row r="13" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A13" s="44" t="s">
+        <v>293</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>109</v>
@@ -10537,12 +13893,12 @@
       <c r="V23" s="75"/>
       <c r="W23" s="62"/>
       <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
+      <c r="Y23" s="142"/>
       <c r="Z23" s="62"/>
       <c r="AA23" s="62"/>
       <c r="AB23" s="62"/>
       <c r="AC23" s="62"/>
-      <c r="AD23" s="142"/>
+      <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
       <c r="AF23" s="62"/>
       <c r="AG23" s="62"/>
@@ -10554,7 +13910,7 @@
         <v>129</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C24" s="148">
         <v>45754</v>
@@ -10668,7 +14024,7 @@
         <v>136</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C26" s="148"/>
       <c r="D26" s="148"/>
@@ -10812,7 +14168,7 @@
       <c r="X28" s="77"/>
       <c r="Y28" s="52"/>
       <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
+      <c r="AA28" s="142"/>
       <c r="AB28" s="52"/>
       <c r="AC28" s="52"/>
       <c r="AD28" s="52"/>
@@ -10903,7 +14259,7 @@
         <v>139</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="148">
         <v>45768</v>
@@ -11017,7 +14373,7 @@
         <v>142</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" s="148">
         <v>45775</v>
@@ -11131,7 +14487,7 @@
         <v>146</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C35" s="148">
         <v>45777</v>
@@ -11433,7 +14789,7 @@
         <v>161</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" s="148">
         <v>45803</v>
@@ -11490,7 +14846,7 @@
         <v>163</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" s="148">
         <v>45810</v>
@@ -11537,7 +14893,7 @@
       <c r="AC42" s="52"/>
       <c r="AD42" s="52"/>
       <c r="AE42" s="75"/>
-      <c r="AF42" s="52"/>
+      <c r="AF42" s="142"/>
       <c r="AG42" s="52"/>
       <c r="AH42" s="52"/>
       <c r="AI42" s="52"/>
@@ -11594,7 +14950,7 @@
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="77"/>
-      <c r="AF43" s="52"/>
+      <c r="AF43" s="142"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
@@ -12009,85 +15365,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8BE596-0BAB-E340-ADBF-68603683A998}">
-  <dimension ref="H10:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="10" spans="8:9" ht="17">
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-    </row>
-    <row r="11" spans="8:9" ht="17">
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-    </row>
-    <row r="12" spans="8:9" ht="17">
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-    </row>
-    <row r="13" spans="8:9" ht="17">
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-    </row>
-    <row r="14" spans="8:9" ht="17">
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-    </row>
-    <row r="15" spans="8:9" ht="17">
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-    </row>
-    <row r="16" spans="8:9" ht="17">
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-    </row>
-    <row r="17" spans="8:9" ht="17">
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-    </row>
-    <row r="18" spans="8:9" ht="17">
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-    </row>
-    <row r="19" spans="8:9" ht="17">
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-    </row>
-    <row r="20" spans="8:9" ht="17">
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-    </row>
-    <row r="21" spans="8:9" ht="17">
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-    </row>
-    <row r="22" spans="8:9" ht="17">
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-    </row>
-    <row r="23" spans="8:9" ht="17">
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-    </row>
-    <row r="24" spans="8:9" ht="17">
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-    </row>
-    <row r="25" spans="8:9" ht="17">
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{d8d26fa7-47f4-4dd4-b833-962641d44b63}" enabled="0" method="" siteId="{d8d26fa7-47f4-4dd4-b833-962641d44b63}" removed="1"/>

--- a/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
+++ b/Phase 2 - Initalisierung/ID2558_TabinasKenan_Projektplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/repos/docs/Phase 2 - Initalisierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB6D2DD-4D6B-2C45-9ECE-44E04E14036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33620D43-C76B-8B4B-B7B4-9E5CF0193D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="774" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorgangsliste Leer" sheetId="4" r:id="rId1"/>
@@ -2873,60 +2873,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2967,13 +2913,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3133,7 +3133,7 @@
         <xdr:cNvPr id="2" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,81 +5082,81 @@
       </c>
     </row>
     <row r="2" spans="1:61" ht="18" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="156"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="176" t="s">
+      <c r="J2" s="158" t="s">
         <v>256</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="178"/>
-      <c r="AK2" s="178"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="178"/>
-      <c r="AN2" s="178"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="178"/>
-      <c r="AQ2" s="178"/>
-      <c r="AR2" s="178"/>
-      <c r="AS2" s="178"/>
-      <c r="AT2" s="178"/>
-      <c r="AU2" s="178"/>
-      <c r="AV2" s="178"/>
-      <c r="AW2" s="178"/>
-      <c r="AX2" s="178"/>
-      <c r="AY2" s="178"/>
-      <c r="AZ2" s="178"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="178"/>
-      <c r="BH2" s="178"/>
-      <c r="BI2" s="179"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="160"/>
+      <c r="AK2" s="160"/>
+      <c r="AL2" s="160"/>
+      <c r="AM2" s="160"/>
+      <c r="AN2" s="160"/>
+      <c r="AO2" s="160"/>
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="160"/>
+      <c r="AR2" s="160"/>
+      <c r="AS2" s="160"/>
+      <c r="AT2" s="160"/>
+      <c r="AU2" s="160"/>
+      <c r="AV2" s="160"/>
+      <c r="AW2" s="160"/>
+      <c r="AX2" s="160"/>
+      <c r="AY2" s="160"/>
+      <c r="AZ2" s="160"/>
+      <c r="BA2" s="160"/>
+      <c r="BB2" s="160"/>
+      <c r="BC2" s="160"/>
+      <c r="BD2" s="160"/>
+      <c r="BE2" s="160"/>
+      <c r="BF2" s="160"/>
+      <c r="BG2" s="160"/>
+      <c r="BH2" s="160"/>
+      <c r="BI2" s="161"/>
     </row>
     <row r="3" spans="1:61" ht="18" customHeight="1">
       <c r="A3" s="24"/>
@@ -5168,86 +5168,86 @@
       <c r="G3" s="27"/>
       <c r="H3" s="26"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="180" t="s">
+      <c r="J3" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183" t="s">
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="180" t="s">
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="183" t="s">
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="183" t="s">
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="183" t="s">
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="182"/>
-      <c r="AJ3" s="183" t="s">
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="181"/>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="183" t="s">
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="164"/>
+      <c r="AN3" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="181"/>
-      <c r="AP3" s="181"/>
-      <c r="AQ3" s="182"/>
-      <c r="AR3" s="183" t="s">
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="164"/>
+      <c r="AR3" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="AS3" s="181"/>
-      <c r="AT3" s="181"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="183" t="s">
+      <c r="AS3" s="163"/>
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="164"/>
+      <c r="AW3" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="AX3" s="181"/>
-      <c r="AY3" s="181"/>
-      <c r="AZ3" s="182"/>
-      <c r="BA3" s="183" t="s">
+      <c r="AX3" s="163"/>
+      <c r="AY3" s="163"/>
+      <c r="AZ3" s="164"/>
+      <c r="BA3" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="BB3" s="181"/>
-      <c r="BC3" s="181"/>
-      <c r="BD3" s="182"/>
-      <c r="BE3" s="183" t="s">
+      <c r="BB3" s="163"/>
+      <c r="BC3" s="163"/>
+      <c r="BD3" s="164"/>
+      <c r="BE3" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="BF3" s="181"/>
-      <c r="BG3" s="181"/>
-      <c r="BH3" s="181"/>
-      <c r="BI3" s="184"/>
+      <c r="BF3" s="163"/>
+      <c r="BG3" s="163"/>
+      <c r="BH3" s="163"/>
+      <c r="BI3" s="166"/>
     </row>
     <row r="4" spans="1:61" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="29" t="s">
         <v>40</v>
       </c>
@@ -5423,10 +5423,10 @@
       </c>
     </row>
     <row r="5" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -6355,10 +6355,10 @@
       <c r="BI18" s="72"/>
     </row>
     <row r="19" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="162"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="37"/>
@@ -6885,10 +6885,10 @@
       <c r="BI26" s="72"/>
     </row>
     <row r="27" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
       <c r="E27" s="37"/>
@@ -7683,10 +7683,10 @@
       <c r="BI38" s="89"/>
     </row>
     <row r="39" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="37"/>
@@ -8079,10 +8079,10 @@
       <c r="BI44" s="72"/>
     </row>
     <row r="45" spans="1:61" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
@@ -8408,10 +8408,10 @@
       <c r="BI49" s="53"/>
     </row>
     <row r="50" spans="1:62" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="161" t="s">
+      <c r="A50" s="171" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="162"/>
+      <c r="B50" s="172"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="37"/>
@@ -8752,28 +8752,28 @@
       </c>
     </row>
     <row r="57" spans="1:62" ht="16" thickBot="1">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="164"/>
-      <c r="C57" s="164"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="164"/>
-      <c r="F57" s="164"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="174"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="174"/>
     </row>
     <row r="58" spans="1:62" ht="16" thickBot="1">
       <c r="A58" s="108" t="s">
         <v>181</v>
       </c>
       <c r="B58" s="108"/>
-      <c r="C58" s="165" t="s">
+      <c r="C58" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="166"/>
-      <c r="E58" s="167" t="s">
+      <c r="D58" s="176"/>
+      <c r="E58" s="177" t="s">
         <v>183</v>
       </c>
-      <c r="F58" s="168"/>
+      <c r="F58" s="178"/>
       <c r="G58" s="106"/>
       <c r="H58" s="107"/>
       <c r="BJ58" s="106"/>
@@ -8783,14 +8783,14 @@
         <v>184</v>
       </c>
       <c r="B59" s="109"/>
-      <c r="C59" s="153" t="s">
+      <c r="C59" s="167" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="154"/>
-      <c r="E59" s="169" t="s">
+      <c r="D59" s="168"/>
+      <c r="E59" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="170"/>
+      <c r="F59" s="180"/>
       <c r="G59" s="106"/>
       <c r="H59" s="107"/>
       <c r="BJ59" s="106"/>
@@ -8800,14 +8800,14 @@
         <v>186</v>
       </c>
       <c r="B60" s="110"/>
-      <c r="C60" s="153" t="s">
+      <c r="C60" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="154"/>
-      <c r="E60" s="155" t="s">
+      <c r="D60" s="168"/>
+      <c r="E60" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="156"/>
+      <c r="F60" s="170"/>
       <c r="G60" s="106"/>
       <c r="H60" s="107"/>
       <c r="BJ60" s="106"/>
@@ -8817,14 +8817,14 @@
         <v>188</v>
       </c>
       <c r="B61" s="110"/>
-      <c r="C61" s="153" t="s">
+      <c r="C61" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="154"/>
-      <c r="E61" s="155" t="s">
+      <c r="D61" s="168"/>
+      <c r="E61" s="169" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="156"/>
+      <c r="F61" s="170"/>
       <c r="G61" s="106"/>
       <c r="H61" s="107"/>
       <c r="BJ61" s="106"/>
@@ -8834,14 +8834,14 @@
         <v>190</v>
       </c>
       <c r="B62" s="110"/>
-      <c r="C62" s="153" t="s">
+      <c r="C62" s="167" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="154"/>
-      <c r="E62" s="155" t="s">
+      <c r="D62" s="168"/>
+      <c r="E62" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="156"/>
+      <c r="F62" s="170"/>
       <c r="G62" s="106"/>
       <c r="H62" s="107"/>
       <c r="BJ62" s="106"/>
@@ -8851,20 +8851,39 @@
         <v>192</v>
       </c>
       <c r="B63" s="111"/>
-      <c r="C63" s="157" t="s">
+      <c r="C63" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="158"/>
-      <c r="E63" s="159" t="s">
+      <c r="D63" s="182"/>
+      <c r="E63" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="160"/>
+      <c r="F63" s="184"/>
       <c r="G63" s="106"/>
       <c r="H63" s="107"/>
       <c r="BJ63" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:G2"/>
@@ -8881,25 +8900,6 @@
     <mergeCell ref="AW3:AZ3"/>
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="BE3:BI3"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -8913,8 +8913,8 @@
   </sheetPr>
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO20:AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -9442,55 +9442,55 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="156"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="176" t="s">
+      <c r="J2" s="158" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
     </row>
     <row r="3" spans="1:35" ht="18" customHeight="1">
       <c r="A3" s="24"/>
@@ -9502,48 +9502,48 @@
       <c r="G3" s="27"/>
       <c r="H3" s="26"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="180" t="s">
+      <c r="J3" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183" t="s">
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="180" t="s">
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="183" t="s">
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="183" t="s">
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="183" t="s">
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="182"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="29" t="s">
         <v>40</v>
       </c>
@@ -9641,10 +9641,10 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -9700,7 +9700,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="48">
-        <f>F6-E6</f>
+        <f t="shared" ref="G6:G19" si="0">F6-E6</f>
         <v>0</v>
       </c>
       <c r="H6" s="49" t="s">
@@ -9747,7 +9747,7 @@
         <v>45663</v>
       </c>
       <c r="D7" s="148">
-        <f t="shared" ref="D7:D19" si="0">C7 + 7</f>
+        <f t="shared" ref="D7:D19" si="1">C7 + 7</f>
         <v>45670</v>
       </c>
       <c r="E7" s="47">
@@ -9757,7 +9757,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="48">
-        <f>F7-E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="49" t="s">
@@ -9804,7 +9804,7 @@
         <v>45670</v>
       </c>
       <c r="D8" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45677</v>
       </c>
       <c r="E8" s="47">
@@ -9814,7 +9814,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="48">
-        <f>F8-E8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="49" t="s">
@@ -9861,7 +9861,7 @@
         <v>45670</v>
       </c>
       <c r="D9" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45677</v>
       </c>
       <c r="E9" s="59">
@@ -9871,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="48">
-        <f>F9-E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="49" t="s">
@@ -9918,7 +9918,7 @@
         <v>45670</v>
       </c>
       <c r="D10" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45677</v>
       </c>
       <c r="E10" s="59">
@@ -9928,7 +9928,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="48">
-        <f>F10-E10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="49" t="s">
@@ -9985,7 +9985,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="48">
-        <f>F11-E11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="49" t="s">
@@ -10032,7 +10032,7 @@
         <v>45691</v>
       </c>
       <c r="D12" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45698</v>
       </c>
       <c r="E12" s="59">
@@ -10042,7 +10042,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="48">
-        <f>F12-E12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="49" t="s">
@@ -10089,7 +10089,7 @@
         <v>45698</v>
       </c>
       <c r="D13" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45705</v>
       </c>
       <c r="E13" s="47">
@@ -10099,7 +10099,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="48">
-        <f>F13-E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="49" t="s">
@@ -10153,7 +10153,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="47">
-        <f>F14-E14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="49" t="s">
@@ -10200,7 +10200,7 @@
         <v>45719</v>
       </c>
       <c r="D15" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45726</v>
       </c>
       <c r="E15" s="59">
@@ -10210,7 +10210,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="47">
-        <f>F15-E15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="49" t="s">
@@ -10257,7 +10257,7 @@
         <v>45719</v>
       </c>
       <c r="D16" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45726</v>
       </c>
       <c r="E16" s="59">
@@ -10267,7 +10267,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="47">
-        <f>F16-E16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="49" t="s">
@@ -10314,7 +10314,7 @@
         <v>45726</v>
       </c>
       <c r="D17" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45733</v>
       </c>
       <c r="E17" s="59">
@@ -10324,7 +10324,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="47">
-        <f>F17-E17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="49" t="s">
@@ -10371,7 +10371,7 @@
         <v>45733</v>
       </c>
       <c r="D18" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45740</v>
       </c>
       <c r="E18" s="59">
@@ -10381,7 +10381,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="59">
-        <f>F18-E18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="49" t="s">
@@ -10428,21 +10428,19 @@
         <v>45740</v>
       </c>
       <c r="D19" s="148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45747</v>
       </c>
       <c r="E19" s="47">
         <v>2</v>
       </c>
-      <c r="F19" s="47">
-        <v>2</v>
-      </c>
+      <c r="F19" s="47"/>
       <c r="G19" s="47">
-        <f>F19-E19</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="I19" s="50" t="s">
         <v>264</v>
@@ -10479,14 +10477,8 @@
       <c r="B20" s="67"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
-      <c r="E20" s="69">
-        <f>SUM(E6:E19)</f>
-        <v>100</v>
-      </c>
-      <c r="F20" s="69">
-        <f>SUM(F6:F19)</f>
-        <v>100</v>
-      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="78"/>
       <c r="H20" s="79"/>
       <c r="I20" s="70"/>
@@ -10518,10 +10510,10 @@
       <c r="AI20" s="71"/>
     </row>
     <row r="21" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="162"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
@@ -10567,21 +10559,19 @@
         <v>45747</v>
       </c>
       <c r="D22" s="148">
-        <f t="shared" ref="D22:D28" si="1">C22 + 7</f>
+        <f t="shared" ref="D22:D28" si="2">C22 + 7</f>
         <v>45754</v>
       </c>
       <c r="E22" s="47">
         <v>8</v>
       </c>
-      <c r="F22" s="47">
-        <v>16</v>
-      </c>
+      <c r="F22" s="47"/>
       <c r="G22" s="47">
-        <f>F22-E22</f>
-        <v>8</v>
-      </c>
-      <c r="H22" s="145" t="s">
-        <v>99</v>
+        <f t="shared" ref="G22:G28" si="3">F22-E22</f>
+        <v>-8</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>264</v>
@@ -10624,18 +10614,16 @@
         <v>45747</v>
       </c>
       <c r="D23" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45754</v>
       </c>
       <c r="E23" s="59">
         <v>8</v>
       </c>
-      <c r="F23" s="59">
-        <v>3</v>
-      </c>
+      <c r="F23" s="59"/>
       <c r="G23" s="47">
-        <f>F23-E23</f>
-        <v>-5</v>
+        <f t="shared" si="3"/>
+        <v>-8</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>112</v>
@@ -10681,18 +10669,16 @@
         <v>45754</v>
       </c>
       <c r="D24" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45761</v>
       </c>
       <c r="E24" s="59">
         <v>8</v>
       </c>
-      <c r="F24" s="59">
-        <v>3</v>
-      </c>
+      <c r="F24" s="59"/>
       <c r="G24" s="47">
-        <f>F24-E24</f>
-        <v>-5</v>
+        <f t="shared" si="3"/>
+        <v>-8</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>112</v>
@@ -10738,21 +10724,19 @@
         <v>45763</v>
       </c>
       <c r="D25" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45770</v>
       </c>
       <c r="E25" s="59">
         <v>8</v>
       </c>
-      <c r="F25" s="59">
-        <v>8</v>
-      </c>
+      <c r="F25" s="59"/>
       <c r="G25" s="47">
-        <f>F25-E25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>264</v>
@@ -10796,15 +10780,13 @@
       <c r="E26" s="59">
         <v>0</v>
       </c>
-      <c r="F26" s="59">
-        <v>8</v>
-      </c>
+      <c r="F26" s="59"/>
       <c r="G26" s="59">
-        <f>F26-E26</f>
-        <v>8</v>
-      </c>
-      <c r="H26" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>264</v>
@@ -10848,15 +10830,13 @@
       <c r="E27" s="59">
         <v>0</v>
       </c>
-      <c r="F27" s="59">
-        <v>8</v>
-      </c>
+      <c r="F27" s="59"/>
       <c r="G27" s="59">
-        <f>F27-E27</f>
-        <v>8</v>
-      </c>
-      <c r="H27" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I27" s="50" t="s">
         <v>264</v>
@@ -10899,7 +10879,7 @@
         <v>45763</v>
       </c>
       <c r="D28" s="148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45770</v>
       </c>
       <c r="E28" s="47">
@@ -10907,10 +10887,10 @@
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="47">
-        <f>F28-E28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="49" t="s">
         <v>112</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -10948,14 +10928,8 @@
       <c r="B29" s="67"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
-      <c r="E29" s="69">
-        <f>SUM(E22:E28)</f>
-        <v>32</v>
-      </c>
-      <c r="F29" s="69">
-        <f>SUM(F22:F28)</f>
-        <v>46</v>
-      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="78"/>
       <c r="H29" s="79"/>
       <c r="I29" s="70"/>
@@ -10987,10 +10961,10 @@
       <c r="AI29" s="71"/>
     </row>
     <row r="30" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="37"/>
@@ -11036,21 +11010,19 @@
         <v>45768</v>
       </c>
       <c r="D31" s="148">
-        <f t="shared" ref="D31:D32" si="2">C31 + 7</f>
+        <f t="shared" ref="D31:D32" si="4">C31 + 7</f>
         <v>45775</v>
       </c>
       <c r="E31" s="59">
         <v>16</v>
       </c>
-      <c r="F31" s="59">
-        <v>16</v>
-      </c>
+      <c r="F31" s="59"/>
       <c r="G31" s="47">
-        <f>F31-E31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="145" t="s">
-        <v>99</v>
+        <f t="shared" ref="G31:G37" si="5">F31-E31</f>
+        <v>-16</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I31" s="50" t="s">
         <v>264</v>
@@ -11093,21 +11065,19 @@
         <v>45768</v>
       </c>
       <c r="D32" s="148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45775</v>
       </c>
       <c r="E32" s="59">
         <v>16</v>
       </c>
-      <c r="F32" s="59">
-        <v>16</v>
-      </c>
+      <c r="F32" s="59"/>
       <c r="G32" s="47">
-        <f>F32-E32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I32" s="50" t="s">
         <v>264</v>
@@ -11156,15 +11126,13 @@
       <c r="E33" s="59">
         <v>16</v>
       </c>
-      <c r="F33" s="59">
-        <v>16</v>
-      </c>
+      <c r="F33" s="59"/>
       <c r="G33" s="47">
-        <f>F33-E33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I33" s="50" t="s">
         <v>264</v>
@@ -11207,21 +11175,19 @@
         <v>45776</v>
       </c>
       <c r="D34" s="148">
-        <f t="shared" ref="D34:D37" si="3">C34 + 7</f>
+        <f t="shared" ref="D34:D37" si="6">C34 + 7</f>
         <v>45783</v>
       </c>
       <c r="E34" s="59">
         <v>16</v>
       </c>
-      <c r="F34" s="59">
-        <v>16</v>
-      </c>
+      <c r="F34" s="59"/>
       <c r="G34" s="47">
-        <f>F34-E34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I34" s="50" t="s">
         <v>264</v>
@@ -11264,21 +11230,19 @@
         <v>45777</v>
       </c>
       <c r="D35" s="148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45784</v>
       </c>
       <c r="E35" s="59">
         <v>8</v>
       </c>
-      <c r="F35" s="59">
-        <v>16</v>
-      </c>
+      <c r="F35" s="59"/>
       <c r="G35" s="47">
-        <f>F35-E35</f>
-        <v>8</v>
-      </c>
-      <c r="H35" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I35" s="50" t="s">
         <v>264</v>
@@ -11321,21 +11285,19 @@
         <v>45778</v>
       </c>
       <c r="D36" s="148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45785</v>
       </c>
       <c r="E36" s="59">
         <v>8</v>
       </c>
-      <c r="F36" s="47">
-        <v>16</v>
-      </c>
+      <c r="F36" s="47"/>
       <c r="G36" s="47">
-        <f>F36-E36</f>
-        <v>8</v>
-      </c>
-      <c r="H36" s="145" t="s">
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I36" s="50" t="s">
         <v>264</v>
@@ -11378,7 +11340,7 @@
         <v>45779</v>
       </c>
       <c r="D37" s="148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45786</v>
       </c>
       <c r="E37" s="47">
@@ -11386,11 +11348,11 @@
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="47">
-        <f>F37-E37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H37" s="145" t="s">
-        <v>99</v>
+      <c r="H37" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I37" s="50" t="s">
         <v>264</v>
@@ -11427,14 +11389,8 @@
       <c r="B38" s="83"/>
       <c r="C38" s="84"/>
       <c r="D38" s="84"/>
-      <c r="E38" s="78">
-        <f>SUM(E31:E37)</f>
-        <v>80</v>
-      </c>
-      <c r="F38" s="78">
-        <f>SUM(F31:F37)</f>
-        <v>96</v>
-      </c>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
       <c r="G38" s="78"/>
       <c r="H38" s="85"/>
       <c r="I38" s="86"/>
@@ -11466,10 +11422,10 @@
       <c r="AI38" s="88"/>
     </row>
     <row r="39" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="37"/>
@@ -11515,15 +11471,13 @@
         <v>45796</v>
       </c>
       <c r="D40" s="148">
-        <f t="shared" ref="D40:D43" si="4">C40 + 7</f>
+        <f t="shared" ref="D40:D43" si="7">C40 + 7</f>
         <v>45803</v>
       </c>
       <c r="E40" s="47">
         <v>8</v>
       </c>
-      <c r="F40" s="47">
-        <v>0</v>
-      </c>
+      <c r="F40" s="47"/>
       <c r="G40" s="47">
         <f>F40-E40</f>
         <v>-8</v>
@@ -11572,21 +11526,19 @@
         <v>45803</v>
       </c>
       <c r="D41" s="148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45810</v>
       </c>
       <c r="E41" s="59">
         <v>8</v>
       </c>
-      <c r="F41" s="59">
-        <v>36</v>
-      </c>
+      <c r="F41" s="59"/>
       <c r="G41" s="47">
         <f>F41-E41</f>
-        <v>28</v>
-      </c>
-      <c r="H41" s="145" t="s">
-        <v>99</v>
+        <v>-8</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I41" s="50" t="s">
         <v>264</v>
@@ -11635,15 +11587,13 @@
       <c r="E42" s="47">
         <v>8</v>
       </c>
-      <c r="F42" s="47">
-        <v>8</v>
-      </c>
+      <c r="F42" s="47"/>
       <c r="G42" s="47">
         <f>F42-E42</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="145" t="s">
-        <v>99</v>
+        <v>-8</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="I42" s="50" t="s">
         <v>264</v>
@@ -11686,20 +11636,18 @@
         <v>45810</v>
       </c>
       <c r="D43" s="148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45817</v>
       </c>
       <c r="E43" s="47">
         <v>8</v>
       </c>
-      <c r="F43" s="47">
-        <v>8</v>
-      </c>
+      <c r="F43" s="47"/>
       <c r="G43" s="47">
         <f>F43-E43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="47" t="s">
+        <v>-8</v>
+      </c>
+      <c r="H43" s="49" t="s">
         <v>112</v>
       </c>
       <c r="I43" s="50" t="s">
@@ -11737,14 +11685,8 @@
       <c r="B44" s="67"/>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
-      <c r="E44" s="69">
-        <f>SUM(E40:E43)</f>
-        <v>32</v>
-      </c>
-      <c r="F44" s="69">
-        <f>SUM(F40:F43)</f>
-        <v>52</v>
-      </c>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="78"/>
       <c r="H44" s="79"/>
       <c r="I44" s="70"/>
@@ -11776,10 +11718,10 @@
       <c r="AI44" s="71"/>
     </row>
     <row r="45" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
@@ -11830,12 +11772,10 @@
       <c r="E46" s="47">
         <v>3</v>
       </c>
-      <c r="F46" s="47">
-        <v>3</v>
-      </c>
+      <c r="F46" s="47"/>
       <c r="G46" s="47">
         <f>F46-E46</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H46" s="49" t="s">
         <v>112</v>
@@ -11886,12 +11826,10 @@
       <c r="E47" s="47">
         <v>8</v>
       </c>
-      <c r="F47" s="47">
-        <v>8</v>
-      </c>
+      <c r="F47" s="47"/>
       <c r="G47" s="47">
         <f>F47-E47</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="H47" s="49" t="s">
         <v>112</v>
@@ -11942,12 +11880,10 @@
       <c r="E48" s="47">
         <v>4</v>
       </c>
-      <c r="F48" s="47">
-        <v>4</v>
-      </c>
+      <c r="F48" s="47"/>
       <c r="G48" s="47">
         <f>F48-E48</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="H48" s="49" t="s">
         <v>112</v>
@@ -12064,40 +12000,40 @@
       <c r="D51" s="79"/>
       <c r="E51" s="105">
         <f>SUM(E5:E49)</f>
-        <v>503</v>
+        <v>259</v>
       </c>
       <c r="F51" s="105">
         <f>SUM(F5:F49)</f>
-        <v>603</v>
+        <v>98</v>
       </c>
       <c r="G51" s="105">
         <f>ABS(SUM(G5:G49))</f>
-        <v>50</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="16" thickBot="1">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="174"/>
+      <c r="F53" s="174"/>
     </row>
     <row r="54" spans="1:36" ht="16" thickBot="1">
       <c r="A54" s="108" t="s">
         <v>181</v>
       </c>
       <c r="B54" s="108"/>
-      <c r="C54" s="165" t="s">
+      <c r="C54" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="166"/>
-      <c r="E54" s="167" t="s">
+      <c r="D54" s="176"/>
+      <c r="E54" s="177" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="187"/>
+      <c r="F54" s="185"/>
       <c r="G54" s="106"/>
       <c r="H54" s="107"/>
       <c r="AJ54" s="106"/>
@@ -12107,30 +12043,20 @@
         <v>266</v>
       </c>
       <c r="B55" s="109"/>
-      <c r="C55" s="153" t="s">
+      <c r="C55" s="167" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="154"/>
-      <c r="E55" s="185" t="s">
+      <c r="D55" s="168"/>
+      <c r="E55" s="186" t="s">
         <v>264</v>
       </c>
-      <c r="F55" s="186"/>
+      <c r="F55" s="187"/>
       <c r="G55" s="106"/>
       <c r="H55" s="107"/>
       <c r="AJ55" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:G2"/>
@@ -12141,6 +12067,16 @@
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -12154,7 +12090,7 @@
   </sheetPr>
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="116" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
@@ -12683,55 +12619,55 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="156"/>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="176" t="s">
+      <c r="J2" s="158" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
     </row>
     <row r="3" spans="1:35" ht="18" customHeight="1">
       <c r="A3" s="24"/>
@@ -12743,48 +12679,48 @@
       <c r="G3" s="27"/>
       <c r="H3" s="26"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="180" t="s">
+      <c r="J3" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="183" t="s">
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="180" t="s">
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="183" t="s">
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="183" t="s">
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="183" t="s">
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="182"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="29" t="s">
         <v>40</v>
       </c>
@@ -12882,10 +12818,10 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="37"/>
@@ -13753,10 +13689,10 @@
       <c r="AI20" s="71"/>
     </row>
     <row r="21" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="162"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
@@ -14216,10 +14152,10 @@
       <c r="AI29" s="71"/>
     </row>
     <row r="30" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="37"/>
@@ -14689,10 +14625,10 @@
       <c r="AI38" s="88"/>
     </row>
     <row r="39" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="162"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="37"/>
@@ -14993,10 +14929,10 @@
       <c r="AI44" s="71"/>
     </row>
     <row r="45" spans="1:35" s="43" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
@@ -15293,28 +15229,28 @@
       </c>
     </row>
     <row r="53" spans="1:36" ht="15">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="174"/>
+      <c r="F53" s="174"/>
     </row>
     <row r="54" spans="1:36" ht="16" thickBot="1">
       <c r="A54" s="108" t="s">
         <v>181</v>
       </c>
       <c r="B54" s="108"/>
-      <c r="C54" s="165" t="s">
+      <c r="C54" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="166"/>
-      <c r="E54" s="167" t="s">
+      <c r="D54" s="176"/>
+      <c r="E54" s="177" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="168"/>
+      <c r="F54" s="178"/>
       <c r="G54" s="106"/>
       <c r="H54" s="107"/>
       <c r="AJ54" s="106"/>
@@ -15324,20 +15260,30 @@
         <v>266</v>
       </c>
       <c r="B55" s="109"/>
-      <c r="C55" s="153" t="s">
+      <c r="C55" s="167" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="154"/>
-      <c r="E55" s="169" t="s">
+      <c r="D55" s="168"/>
+      <c r="E55" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="F55" s="170"/>
+      <c r="F55" s="180"/>
       <c r="G55" s="106"/>
       <c r="H55" s="107"/>
       <c r="AJ55" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:G2"/>
@@ -15348,16 +15294,6 @@
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
